--- a/data/542/BOKNA/Monthly_NA2.xlsx
+++ b/data/542/BOKNA/Monthly_NA2.xlsx
@@ -1163,8 +1163,11 @@
     <col min="746" max="746" width="9.0" customWidth="true"/>
     <col min="747" max="747" width="9.0" customWidth="true"/>
     <col min="748" max="748" width="9.0" customWidth="true"/>
-    <col min="749" max="749" width="4.0" customWidth="true"/>
-    <col min="750" max="750" width="4.0" customWidth="true"/>
+    <col min="749" max="749" width="9.0" customWidth="true"/>
+    <col min="750" max="750" width="9.0" customWidth="true"/>
+    <col min="751" max="751" width="9.0" customWidth="true"/>
+    <col min="752" max="752" width="4.0" customWidth="true"/>
+    <col min="753" max="753" width="4.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4918,6 +4921,21 @@
           <t>2021/12</t>
         </is>
       </c>
+      <c r="ABW1" s="2" t="inlineStr">
+        <is>
+          <t>2022/01</t>
+        </is>
+      </c>
+      <c r="ABX1" s="2" t="inlineStr">
+        <is>
+          <t>2022/02</t>
+        </is>
+      </c>
+      <c r="ABY1" s="2" t="inlineStr">
+        <is>
+          <t>2022/03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -7951,19 +7969,19 @@
         <v>125.0</v>
       </c>
       <c r="AAY2" s="3" t="n">
-        <v>116.1</v>
+        <v>116.2</v>
       </c>
       <c r="AAZ2" s="3" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="ABA2" s="3" t="n">
         <v>110.1</v>
       </c>
       <c r="ABB2" s="3" t="n">
-        <v>110.8</v>
+        <v>110.9</v>
       </c>
       <c r="ABC2" s="3" t="n">
-        <v>120.3</v>
+        <v>120.4</v>
       </c>
       <c r="ABD2" s="3" t="n">
         <v>119.2</v>
@@ -7978,31 +7996,31 @@
         <v>123.5</v>
       </c>
       <c r="ABH2" s="3" t="n">
-        <v>120.2</v>
+        <v>120.1</v>
       </c>
       <c r="ABI2" s="3" t="n">
-        <v>122.2</v>
+        <v>122.3</v>
       </c>
       <c r="ABJ2" s="3" t="n">
-        <v>123.3</v>
+        <v>123.2</v>
       </c>
       <c r="ABK2" s="3" t="n">
-        <v>116.8</v>
+        <v>117.1</v>
       </c>
       <c r="ABL2" s="3" t="n">
-        <v>111.6</v>
+        <v>111.8</v>
       </c>
       <c r="ABM2" s="3" t="n">
-        <v>125.1</v>
+        <v>125.6</v>
       </c>
       <c r="ABN2" s="3" t="n">
-        <v>124.9</v>
+        <v>125.2</v>
       </c>
       <c r="ABO2" s="3" t="n">
-        <v>129.0</v>
+        <v>129.3</v>
       </c>
       <c r="ABP2" s="3" t="n">
-        <v>125.5</v>
+        <v>125.6</v>
       </c>
       <c r="ABQ2" s="3" t="n">
         <v>127.1</v>
@@ -8011,17 +8029,26 @@
         <v>124.2</v>
       </c>
       <c r="ABS2" s="3" t="n">
-        <v>131.7</v>
+        <v>131.8</v>
       </c>
       <c r="ABT2" s="3" t="n">
-        <v>133.8</v>
-      </c>
-      <c r="ABU2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABV2" s="1" t="inlineStr">
+        <v>134.0</v>
+      </c>
+      <c r="ABU2" s="3" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="ABV2" s="3" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="ABW2" s="3" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="ABX2" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABY2" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11059,77 +11086,86 @@
         <v>118.4</v>
       </c>
       <c r="AAY3" s="3" t="n">
-        <v>105.2</v>
+        <v>105.4</v>
       </c>
       <c r="AAZ3" s="3" t="n">
-        <v>74.5</v>
+        <v>74.6</v>
       </c>
       <c r="ABA3" s="3" t="n">
-        <v>70.1</v>
+        <v>70.2</v>
       </c>
       <c r="ABB3" s="3" t="n">
-        <v>84.9</v>
+        <v>85.0</v>
       </c>
       <c r="ABC3" s="3" t="n">
-        <v>102.1</v>
+        <v>102.3</v>
       </c>
       <c r="ABD3" s="3" t="n">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="ABE3" s="3" t="n">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="ABF3" s="3" t="n">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="ABG3" s="3" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="ABH3" s="3" t="n">
-        <v>111.2</v>
+        <v>111.4</v>
       </c>
       <c r="ABI3" s="3" t="n">
-        <v>113.5</v>
+        <v>113.6</v>
       </c>
       <c r="ABJ3" s="3" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="ABK3" s="3" t="n">
-        <v>99.0</v>
+        <v>99.2</v>
       </c>
       <c r="ABL3" s="3" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="ABM3" s="3" t="n">
-        <v>113.8</v>
+        <v>113.9</v>
       </c>
       <c r="ABN3" s="3" t="n">
-        <v>112.4</v>
+        <v>112.6</v>
       </c>
       <c r="ABO3" s="3" t="n">
-        <v>121.6</v>
+        <v>121.7</v>
       </c>
       <c r="ABP3" s="3" t="n">
-        <v>109.2</v>
+        <v>109.3</v>
       </c>
       <c r="ABQ3" s="3" t="n">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="ABR3" s="3" t="n">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="ABS3" s="3" t="n">
-        <v>122.3</v>
+        <v>122.5</v>
       </c>
       <c r="ABT3" s="3" t="n">
-        <v>137.4</v>
-      </c>
-      <c r="ABU3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABV3" s="1" t="inlineStr">
+        <v>137.6</v>
+      </c>
+      <c r="ABU3" s="3" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="ABV3" s="3" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="ABW3" s="3" t="n">
+        <v>131.8</v>
+      </c>
+      <c r="ABX3" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABY3" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14209,7 +14245,7 @@
         <v>103.6</v>
       </c>
       <c r="ABM4" s="3" t="n">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="ABN4" s="3" t="n">
         <v>101.0</v>
@@ -14221,7 +14257,7 @@
         <v>103.0</v>
       </c>
       <c r="ABQ4" s="3" t="n">
-        <v>108.3</v>
+        <v>108.1</v>
       </c>
       <c r="ABR4" s="3" t="n">
         <v>107.9</v>
@@ -14230,14 +14266,23 @@
         <v>120.8</v>
       </c>
       <c r="ABT4" s="3" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="ABU4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABV4" s="1" t="inlineStr">
+        <v>100.5</v>
+      </c>
+      <c r="ABU4" s="3" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="ABV4" s="3" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="ABW4" s="3" t="n">
+        <v>119.2</v>
+      </c>
+      <c r="ABX4" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABY4" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -17340,12 +17385,21 @@
       <c r="ABT5" s="3" t="n">
         <v>185.2</v>
       </c>
-      <c r="ABU5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABV5" s="1" t="inlineStr">
+      <c r="ABU5" s="3" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="ABV5" s="3" t="n">
+        <v>172.7</v>
+      </c>
+      <c r="ABW5" s="3" t="n">
+        <v>169.7</v>
+      </c>
+      <c r="ABX5" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABY5" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -20623,19 +20677,19 @@
         <v>101.0</v>
       </c>
       <c r="AAY6" s="3" t="n">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="AAZ6" s="3" t="n">
         <v>81.3</v>
       </c>
       <c r="ABA6" s="3" t="n">
-        <v>77.1</v>
+        <v>77.2</v>
       </c>
       <c r="ABB6" s="3" t="n">
-        <v>84.5</v>
+        <v>84.6</v>
       </c>
       <c r="ABC6" s="3" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="ABD6" s="3" t="n">
         <v>90.3</v>
@@ -20644,34 +20698,34 @@
         <v>84.0</v>
       </c>
       <c r="ABF6" s="3" t="n">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="ABG6" s="3" t="n">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="ABH6" s="3" t="n">
-        <v>91.6</v>
+        <v>91.4</v>
       </c>
       <c r="ABI6" s="3" t="n">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="ABJ6" s="3" t="n">
-        <v>87.0</v>
+        <v>87.1</v>
       </c>
       <c r="ABK6" s="3" t="n">
-        <v>81.4</v>
+        <v>82.4</v>
       </c>
       <c r="ABL6" s="3" t="n">
-        <v>82.3</v>
+        <v>82.9</v>
       </c>
       <c r="ABM6" s="3" t="n">
-        <v>90.8</v>
+        <v>91.5</v>
       </c>
       <c r="ABN6" s="3" t="n">
-        <v>92.0</v>
+        <v>92.6</v>
       </c>
       <c r="ABO6" s="3" t="n">
-        <v>94.7</v>
+        <v>95.2</v>
       </c>
       <c r="ABP6" s="3" t="n">
         <v>90.1</v>
@@ -20680,20 +20734,29 @@
         <v>90.1</v>
       </c>
       <c r="ABR6" s="3" t="n">
-        <v>87.8</v>
+        <v>87.9</v>
       </c>
       <c r="ABS6" s="3" t="n">
-        <v>99.7</v>
+        <v>100.0</v>
       </c>
       <c r="ABT6" s="3" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="ABU6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABV6" s="1" t="inlineStr">
+        <v>102.4</v>
+      </c>
+      <c r="ABU6" s="3" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="ABV6" s="3" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="ABW6" s="3" t="n">
+        <v>95.4</v>
+      </c>
+      <c r="ABX6" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABY6" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -23884,44 +23947,53 @@
         <v>319.4</v>
       </c>
       <c r="ABJ7" s="3" t="n">
-        <v>338.6</v>
+        <v>336.4</v>
       </c>
       <c r="ABK7" s="3" t="n">
-        <v>316.3</v>
+        <v>316.5</v>
       </c>
       <c r="ABL7" s="3" t="n">
-        <v>286.8</v>
+        <v>285.6</v>
       </c>
       <c r="ABM7" s="3" t="n">
-        <v>325.6</v>
+        <v>329.6</v>
       </c>
       <c r="ABN7" s="3" t="n">
-        <v>320.6</v>
+        <v>321.4</v>
       </c>
       <c r="ABO7" s="3" t="n">
-        <v>330.4</v>
+        <v>331.5</v>
       </c>
       <c r="ABP7" s="3" t="n">
-        <v>319.3</v>
+        <v>321.2</v>
       </c>
       <c r="ABQ7" s="3" t="n">
-        <v>338.4</v>
+        <v>338.0</v>
       </c>
       <c r="ABR7" s="3" t="n">
-        <v>324.4</v>
+        <v>323.6</v>
       </c>
       <c r="ABS7" s="3" t="n">
-        <v>340.3</v>
+        <v>339.8</v>
       </c>
       <c r="ABT7" s="3" t="n">
         <v>357.3</v>
       </c>
-      <c r="ABU7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABV7" s="1" t="inlineStr">
+      <c r="ABU7" s="3" t="n">
+        <v>372.7</v>
+      </c>
+      <c r="ABV7" s="3" t="n">
+        <v>393.4</v>
+      </c>
+      <c r="ABW7" s="3" t="n">
+        <v>346.7</v>
+      </c>
+      <c r="ABX7" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABY7" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -27352,44 +27424,53 @@
         <v>73.6</v>
       </c>
       <c r="ABJ8" s="3" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="ABK8" s="3" t="n">
         <v>81.3</v>
       </c>
       <c r="ABL8" s="3" t="n">
-        <v>68.0</v>
+        <v>68.3</v>
       </c>
       <c r="ABM8" s="3" t="n">
-        <v>78.6</v>
+        <v>78.8</v>
       </c>
       <c r="ABN8" s="3" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="ABO8" s="3" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="ABP8" s="3" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="ABQ8" s="3" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="ABR8" s="3" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="ABS8" s="3" t="n">
+        <v>84.9</v>
+      </c>
+      <c r="ABT8" s="3" t="n">
+        <v>77.4</v>
+      </c>
+      <c r="ABU8" s="3" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="ABV8" s="3" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="ABW8" s="3" t="n">
         <v>80.4</v>
       </c>
-      <c r="ABO8" s="3" t="n">
-        <v>77.9</v>
-      </c>
-      <c r="ABP8" s="3" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="ABQ8" s="3" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="ABR8" s="3" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="ABS8" s="3" t="n">
-        <v>84.8</v>
-      </c>
-      <c r="ABT8" s="3" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="ABU8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABV8" s="1" t="inlineStr">
+      <c r="ABX8" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABY8" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -30427,77 +30508,86 @@
         <v>121.6</v>
       </c>
       <c r="AAY9" s="3" t="n">
-        <v>111.6</v>
+        <v>111.8</v>
       </c>
       <c r="AAZ9" s="3" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="ABA9" s="3" t="n">
-        <v>107.0</v>
+        <v>106.9</v>
       </c>
       <c r="ABB9" s="3" t="n">
         <v>108.9</v>
       </c>
       <c r="ABC9" s="3" t="n">
-        <v>118.6</v>
+        <v>118.4</v>
       </c>
       <c r="ABD9" s="3" t="n">
+        <v>116.9</v>
+      </c>
+      <c r="ABE9" s="3" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="ABF9" s="3" t="n">
+        <v>111.7</v>
+      </c>
+      <c r="ABG9" s="3" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="ABH9" s="3" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="ABI9" s="3" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="ABJ9" s="3" t="n">
+        <v>119.1</v>
+      </c>
+      <c r="ABK9" s="3" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="ABL9" s="3" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="ABM9" s="3" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="ABN9" s="3" t="n">
+        <v>118.9</v>
+      </c>
+      <c r="ABO9" s="3" t="n">
+        <v>122.8</v>
+      </c>
+      <c r="ABP9" s="3" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="ABQ9" s="3" t="n">
+        <v>120.2</v>
+      </c>
+      <c r="ABR9" s="3" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="ABS9" s="3" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="ABT9" s="3" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="ABU9" s="3" t="n">
+        <v>124.7</v>
+      </c>
+      <c r="ABV9" s="3" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="ABW9" s="3" t="n">
         <v>117.3</v>
       </c>
-      <c r="ABE9" s="3" t="n">
-        <v>111.2</v>
-      </c>
-      <c r="ABF9" s="3" t="n">
-        <v>111.8</v>
-      </c>
-      <c r="ABG9" s="3" t="n">
-        <v>117.8</v>
-      </c>
-      <c r="ABH9" s="3" t="n">
-        <v>115.6</v>
-      </c>
-      <c r="ABI9" s="3" t="n">
-        <v>118.8</v>
-      </c>
-      <c r="ABJ9" s="3" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="ABK9" s="3" t="n">
-        <v>111.6</v>
-      </c>
-      <c r="ABL9" s="3" t="n">
-        <v>105.7</v>
-      </c>
-      <c r="ABM9" s="3" t="n">
-        <v>118.9</v>
-      </c>
-      <c r="ABN9" s="3" t="n">
-        <v>118.4</v>
-      </c>
-      <c r="ABO9" s="3" t="n">
-        <v>122.3</v>
-      </c>
-      <c r="ABP9" s="3" t="n">
-        <v>119.2</v>
-      </c>
-      <c r="ABQ9" s="3" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="ABR9" s="3" t="n">
-        <v>116.0</v>
-      </c>
-      <c r="ABS9" s="3" t="n">
-        <v>122.0</v>
-      </c>
-      <c r="ABT9" s="3" t="n">
-        <v>124.2</v>
-      </c>
-      <c r="ABU9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABV9" s="1" t="inlineStr">
+      <c r="ABX9" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABY9" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -33535,16 +33625,16 @@
         <v>114.1</v>
       </c>
       <c r="AAY10" s="3" t="n">
-        <v>101.0</v>
+        <v>101.2</v>
       </c>
       <c r="AAZ10" s="3" t="n">
-        <v>71.7</v>
+        <v>71.9</v>
       </c>
       <c r="ABA10" s="3" t="n">
         <v>67.7</v>
       </c>
       <c r="ABB10" s="3" t="n">
-        <v>82.3</v>
+        <v>82.4</v>
       </c>
       <c r="ABC10" s="3" t="n">
         <v>98.5</v>
@@ -33559,22 +33649,22 @@
         <v>82.9</v>
       </c>
       <c r="ABG10" s="3" t="n">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="ABH10" s="3" t="n">
-        <v>106.2</v>
+        <v>106.5</v>
       </c>
       <c r="ABI10" s="3" t="n">
-        <v>108.7</v>
+        <v>108.9</v>
       </c>
       <c r="ABJ10" s="3" t="n">
-        <v>95.6</v>
+        <v>95.9</v>
       </c>
       <c r="ABK10" s="3" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="ABL10" s="3" t="n">
-        <v>95.7</v>
+        <v>96.0</v>
       </c>
       <c r="ABM10" s="3" t="n">
         <v>109.0</v>
@@ -33583,10 +33673,10 @@
         <v>107.5</v>
       </c>
       <c r="ABO10" s="3" t="n">
-        <v>116.4</v>
+        <v>116.3</v>
       </c>
       <c r="ABP10" s="3" t="n">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="ABQ10" s="3" t="n">
         <v>95.0</v>
@@ -33595,17 +33685,26 @@
         <v>95.2</v>
       </c>
       <c r="ABS10" s="3" t="n">
-        <v>115.3</v>
+        <v>115.6</v>
       </c>
       <c r="ABT10" s="3" t="n">
-        <v>130.4</v>
-      </c>
-      <c r="ABU10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABV10" s="1" t="inlineStr">
+        <v>130.8</v>
+      </c>
+      <c r="ABU10" s="3" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="ABV10" s="3" t="n">
+        <v>126.3</v>
+      </c>
+      <c r="ABW10" s="3" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="ABX10" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABY10" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -36643,77 +36742,86 @@
         <v>93.4</v>
       </c>
       <c r="AAY11" s="3" t="n">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="AAZ11" s="3" t="n">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="ABA11" s="3" t="n">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="ABB11" s="3" t="n">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="ABC11" s="3" t="n">
-        <v>104.9</v>
+        <v>104.5</v>
       </c>
       <c r="ABD11" s="3" t="n">
-        <v>98.7</v>
+        <v>97.9</v>
       </c>
       <c r="ABE11" s="3" t="n">
-        <v>95.9</v>
+        <v>95.1</v>
       </c>
       <c r="ABF11" s="3" t="n">
-        <v>98.7</v>
+        <v>98.3</v>
       </c>
       <c r="ABG11" s="3" t="n">
-        <v>106.2</v>
+        <v>106.9</v>
       </c>
       <c r="ABH11" s="3" t="n">
-        <v>84.5</v>
+        <v>85.1</v>
       </c>
       <c r="ABI11" s="3" t="n">
-        <v>89.6</v>
+        <v>90.0</v>
       </c>
       <c r="ABJ11" s="3" t="n">
-        <v>95.9</v>
+        <v>96.5</v>
       </c>
       <c r="ABK11" s="3" t="n">
-        <v>91.5</v>
+        <v>92.1</v>
       </c>
       <c r="ABL11" s="3" t="n">
-        <v>89.0</v>
+        <v>89.8</v>
       </c>
       <c r="ABM11" s="3" t="n">
-        <v>85.8</v>
+        <v>86.2</v>
       </c>
       <c r="ABN11" s="3" t="n">
-        <v>87.3</v>
+        <v>87.9</v>
       </c>
       <c r="ABO11" s="3" t="n">
-        <v>90.7</v>
+        <v>91.1</v>
       </c>
       <c r="ABP11" s="3" t="n">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="ABQ11" s="3" t="n">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="ABR11" s="3" t="n">
-        <v>92.6</v>
+        <v>93.3</v>
       </c>
       <c r="ABS11" s="3" t="n">
-        <v>102.0</v>
+        <v>103.1</v>
       </c>
       <c r="ABT11" s="3" t="n">
-        <v>85.9</v>
-      </c>
-      <c r="ABU11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABV11" s="1" t="inlineStr">
+        <v>86.6</v>
+      </c>
+      <c r="ABU11" s="3" t="n">
+        <v>83.9</v>
+      </c>
+      <c r="ABV11" s="3" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="ABW11" s="3" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="ABX11" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABY11" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -39751,77 +39859,86 @@
         <v>147.2</v>
       </c>
       <c r="AAY12" s="3" t="n">
-        <v>142.8</v>
+        <v>142.3</v>
       </c>
       <c r="AAZ12" s="3" t="n">
-        <v>134.9</v>
+        <v>134.3</v>
       </c>
       <c r="ABA12" s="3" t="n">
-        <v>140.2</v>
+        <v>139.2</v>
       </c>
       <c r="ABB12" s="3" t="n">
-        <v>141.7</v>
+        <v>141.0</v>
       </c>
       <c r="ABC12" s="3" t="n">
-        <v>158.8</v>
+        <v>157.6</v>
       </c>
       <c r="ABD12" s="3" t="n">
-        <v>160.6</v>
+        <v>158.6</v>
       </c>
       <c r="ABE12" s="3" t="n">
-        <v>165.6</v>
+        <v>165.2</v>
       </c>
       <c r="ABF12" s="3" t="n">
         <v>165.0</v>
       </c>
       <c r="ABG12" s="3" t="n">
-        <v>156.5</v>
+        <v>158.0</v>
       </c>
       <c r="ABH12" s="3" t="n">
-        <v>157.9</v>
+        <v>159.7</v>
       </c>
       <c r="ABI12" s="3" t="n">
-        <v>150.2</v>
+        <v>151.5</v>
       </c>
       <c r="ABJ12" s="3" t="n">
-        <v>147.4</v>
+        <v>149.0</v>
       </c>
       <c r="ABK12" s="3" t="n">
-        <v>142.7</v>
+        <v>144.5</v>
       </c>
       <c r="ABL12" s="3" t="n">
-        <v>132.3</v>
+        <v>134.1</v>
       </c>
       <c r="ABM12" s="3" t="n">
-        <v>150.3</v>
+        <v>152.3</v>
       </c>
       <c r="ABN12" s="3" t="n">
-        <v>153.1</v>
+        <v>155.2</v>
       </c>
       <c r="ABO12" s="3" t="n">
-        <v>161.0</v>
+        <v>163.1</v>
       </c>
       <c r="ABP12" s="3" t="n">
-        <v>162.1</v>
+        <v>163.9</v>
       </c>
       <c r="ABQ12" s="3" t="n">
-        <v>171.4</v>
+        <v>173.2</v>
       </c>
       <c r="ABR12" s="3" t="n">
-        <v>167.3</v>
+        <v>169.7</v>
       </c>
       <c r="ABS12" s="3" t="n">
-        <v>167.0</v>
+        <v>169.7</v>
       </c>
       <c r="ABT12" s="3" t="n">
-        <v>166.5</v>
-      </c>
-      <c r="ABU12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABV12" s="1" t="inlineStr">
+        <v>169.2</v>
+      </c>
+      <c r="ABU12" s="3" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="ABV12" s="3" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="ABW12" s="3" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="ABX12" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABY12" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -43099,77 +43216,86 @@
         <v>97.8</v>
       </c>
       <c r="AAY13" s="3" t="n">
-        <v>91.8</v>
+        <v>92.0</v>
       </c>
       <c r="AAZ13" s="3" t="n">
-        <v>78.5</v>
+        <v>78.6</v>
       </c>
       <c r="ABA13" s="3" t="n">
-        <v>74.6</v>
+        <v>74.7</v>
       </c>
       <c r="ABB13" s="3" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="ABC13" s="3" t="n">
         <v>94.6</v>
       </c>
       <c r="ABD13" s="3" t="n">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="ABE13" s="3" t="n">
-        <v>80.9</v>
+        <v>80.7</v>
       </c>
       <c r="ABF13" s="3" t="n">
-        <v>78.9</v>
+        <v>78.8</v>
       </c>
       <c r="ABG13" s="3" t="n">
-        <v>84.1</v>
+        <v>84.2</v>
       </c>
       <c r="ABH13" s="3" t="n">
-        <v>87.2</v>
+        <v>87.0</v>
       </c>
       <c r="ABI13" s="3" t="n">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="ABJ13" s="3" t="n">
         <v>83.1</v>
       </c>
       <c r="ABK13" s="3" t="n">
-        <v>78.0</v>
+        <v>79.2</v>
       </c>
       <c r="ABL13" s="3" t="n">
-        <v>78.4</v>
+        <v>79.1</v>
       </c>
       <c r="ABM13" s="3" t="n">
-        <v>87.5</v>
+        <v>88.1</v>
       </c>
       <c r="ABN13" s="3" t="n">
-        <v>88.2</v>
+        <v>88.9</v>
       </c>
       <c r="ABO13" s="3" t="n">
-        <v>90.9</v>
+        <v>91.6</v>
       </c>
       <c r="ABP13" s="3" t="n">
-        <v>86.9</v>
+        <v>87.1</v>
       </c>
       <c r="ABQ13" s="3" t="n">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="ABR13" s="3" t="n">
-        <v>84.1</v>
+        <v>84.5</v>
       </c>
       <c r="ABS13" s="3" t="n">
-        <v>94.3</v>
+        <v>95.0</v>
       </c>
       <c r="ABT13" s="3" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="ABU13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABV13" s="1" t="inlineStr">
+        <v>97.9</v>
+      </c>
+      <c r="ABU13" s="3" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="ABV13" s="3" t="n">
+        <v>95.4</v>
+      </c>
+      <c r="ABW13" s="3" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="ABX13" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABY13" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -46327,77 +46453,86 @@
         <v>231.0</v>
       </c>
       <c r="AAY14" s="3" t="n">
-        <v>213.0</v>
+        <v>213.5</v>
       </c>
       <c r="AAZ14" s="3" t="n">
-        <v>238.3</v>
+        <v>238.6</v>
       </c>
       <c r="ABA14" s="3" t="n">
-        <v>269.3</v>
+        <v>269.4</v>
       </c>
       <c r="ABB14" s="3" t="n">
         <v>253.4</v>
       </c>
       <c r="ABC14" s="3" t="n">
-        <v>268.0</v>
+        <v>267.7</v>
       </c>
       <c r="ABD14" s="3" t="n">
-        <v>261.7</v>
+        <v>261.0</v>
       </c>
       <c r="ABE14" s="3" t="n">
-        <v>265.0</v>
+        <v>264.4</v>
       </c>
       <c r="ABF14" s="3" t="n">
-        <v>287.2</v>
+        <v>286.7</v>
       </c>
       <c r="ABG14" s="3" t="n">
-        <v>292.0</v>
+        <v>292.3</v>
       </c>
       <c r="ABH14" s="3" t="n">
-        <v>287.8</v>
+        <v>288.0</v>
       </c>
       <c r="ABI14" s="3" t="n">
-        <v>308.0</v>
+        <v>308.3</v>
       </c>
       <c r="ABJ14" s="3" t="n">
-        <v>325.3</v>
+        <v>322.9</v>
       </c>
       <c r="ABK14" s="3" t="n">
-        <v>301.8</v>
+        <v>302.4</v>
       </c>
       <c r="ABL14" s="3" t="n">
-        <v>272.6</v>
+        <v>272.1</v>
       </c>
       <c r="ABM14" s="3" t="n">
-        <v>311.0</v>
+        <v>315.0</v>
       </c>
       <c r="ABN14" s="3" t="n">
-        <v>305.7</v>
+        <v>307.1</v>
       </c>
       <c r="ABO14" s="3" t="n">
-        <v>315.5</v>
+        <v>317.2</v>
       </c>
       <c r="ABP14" s="3" t="n">
-        <v>306.1</v>
+        <v>308.1</v>
       </c>
       <c r="ABQ14" s="3" t="n">
-        <v>324.1</v>
+        <v>324.7</v>
       </c>
       <c r="ABR14" s="3" t="n">
-        <v>307.5</v>
+        <v>308.5</v>
       </c>
       <c r="ABS14" s="3" t="n">
-        <v>319.8</v>
+        <v>321.7</v>
       </c>
       <c r="ABT14" s="3" t="n">
-        <v>338.5</v>
-      </c>
-      <c r="ABU14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABV14" s="1" t="inlineStr">
+        <v>340.8</v>
+      </c>
+      <c r="ABU14" s="3" t="n">
+        <v>354.2</v>
+      </c>
+      <c r="ABV14" s="3" t="n">
+        <v>370.3</v>
+      </c>
+      <c r="ABW14" s="3" t="n">
+        <v>322.5</v>
+      </c>
+      <c r="ABX14" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABY14" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -49795,77 +49930,86 @@
         <v>79.3</v>
       </c>
       <c r="AAY15" s="3" t="n">
-        <v>85.0</v>
+        <v>84.9</v>
       </c>
       <c r="AAZ15" s="3" t="n">
         <v>72.0</v>
       </c>
       <c r="ABA15" s="3" t="n">
+        <v>75.9</v>
+      </c>
+      <c r="ABB15" s="3" t="n">
+        <v>77.6</v>
+      </c>
+      <c r="ABC15" s="3" t="n">
         <v>76.1</v>
       </c>
-      <c r="ABB15" s="3" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="ABC15" s="3" t="n">
-        <v>76.3</v>
-      </c>
       <c r="ABD15" s="3" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="ABE15" s="3" t="n">
+        <v>74.9</v>
+      </c>
+      <c r="ABF15" s="3" t="n">
+        <v>66.1</v>
+      </c>
+      <c r="ABG15" s="3" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="ABH15" s="3" t="n">
+        <v>69.6</v>
+      </c>
+      <c r="ABI15" s="3" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="ABJ15" s="3" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="ABK15" s="3" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="ABL15" s="3" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="ABM15" s="3" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="ABN15" s="3" t="n">
         <v>74.2</v>
       </c>
-      <c r="ABE15" s="3" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="ABF15" s="3" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="ABG15" s="3" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="ABH15" s="3" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="ABI15" s="3" t="n">
+      <c r="ABO15" s="3" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="ABP15" s="3" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="ABQ15" s="3" t="n">
+        <v>71.4</v>
+      </c>
+      <c r="ABR15" s="3" t="n">
         <v>69.1</v>
       </c>
-      <c r="ABJ15" s="3" t="n">
-        <v>70.1</v>
-      </c>
-      <c r="ABK15" s="3" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="ABL15" s="3" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="ABM15" s="3" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="ABN15" s="3" t="n">
-        <v>73.6</v>
-      </c>
-      <c r="ABO15" s="3" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="ABP15" s="3" t="n">
+      <c r="ABS15" s="3" t="n">
+        <v>77.1</v>
+      </c>
+      <c r="ABT15" s="3" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="ABU15" s="3" t="n">
         <v>69.6</v>
       </c>
-      <c r="ABQ15" s="3" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="ABR15" s="3" t="n">
-        <v>68.4</v>
-      </c>
-      <c r="ABS15" s="3" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="ABT15" s="3" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="ABU15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABV15" s="1" t="inlineStr">
+      <c r="ABV15" s="3" t="n">
+        <v>68.1</v>
+      </c>
+      <c r="ABW15" s="3" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="ABX15" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABY15" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -52003,376 +52147,376 @@
         </is>
       </c>
       <c r="PK16" s="3" t="n">
-        <v>49.1</v>
+        <v>48.9</v>
       </c>
       <c r="PL16" s="3" t="n">
-        <v>46.2</v>
+        <v>46.0</v>
       </c>
       <c r="PM16" s="3" t="n">
-        <v>46.5</v>
+        <v>46.3</v>
       </c>
       <c r="PN16" s="3" t="n">
-        <v>48.0</v>
+        <v>47.8</v>
       </c>
       <c r="PO16" s="3" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="PP16" s="3" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="PQ16" s="3" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="PR16" s="3" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="PS16" s="3" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="PT16" s="3" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="PU16" s="3" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="PV16" s="3" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="PW16" s="3" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="PX16" s="3" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="PY16" s="3" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="PZ16" s="3" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="QA16" s="3" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="QB16" s="3" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="QC16" s="3" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="QD16" s="3" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="QE16" s="3" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="QF16" s="3" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="QG16" s="3" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="QH16" s="3" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="QI16" s="3" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="QJ16" s="3" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="QK16" s="3" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="QL16" s="3" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="QM16" s="3" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="QN16" s="3" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="QO16" s="3" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="QP16" s="3" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="QQ16" s="3" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="QR16" s="3" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="QS16" s="3" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="QT16" s="3" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="QU16" s="3" t="n">
         <v>46.1</v>
       </c>
-      <c r="PP16" s="3" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="PQ16" s="3" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="PR16" s="3" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="PS16" s="3" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="PT16" s="3" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="PU16" s="3" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="PV16" s="3" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="PW16" s="3" t="n">
+      <c r="QV16" s="3" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="QW16" s="3" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="QX16" s="3" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="QY16" s="3" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="QZ16" s="3" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="RA16" s="3" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="RB16" s="3" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="RC16" s="3" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="RD16" s="3" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="RE16" s="3" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="RF16" s="3" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="RG16" s="3" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="RH16" s="3" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="RI16" s="3" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="RJ16" s="3" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="RK16" s="3" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="RL16" s="3" t="n">
         <v>52.9</v>
       </c>
-      <c r="PX16" s="3" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="PY16" s="3" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="PZ16" s="3" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="QA16" s="3" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="QB16" s="3" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="QC16" s="3" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="QD16" s="3" t="n">
-        <v>51.4</v>
-      </c>
-      <c r="QE16" s="3" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="QF16" s="3" t="n">
+      <c r="RM16" s="3" t="n">
         <v>54.9</v>
       </c>
-      <c r="QG16" s="3" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="QH16" s="3" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="QI16" s="3" t="n">
+      <c r="RN16" s="3" t="n">
         <v>54.5</v>
       </c>
-      <c r="QJ16" s="3" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="QK16" s="3" t="n">
+      <c r="RO16" s="3" t="n">
         <v>55.3</v>
       </c>
-      <c r="QL16" s="3" t="n">
+      <c r="RP16" s="3" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="RQ16" s="3" t="n">
         <v>56.8</v>
       </c>
-      <c r="QM16" s="3" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="QN16" s="3" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="QO16" s="3" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="QP16" s="3" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="QQ16" s="3" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="QR16" s="3" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="QS16" s="3" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="QT16" s="3" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="QU16" s="3" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="QV16" s="3" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="QW16" s="3" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="QX16" s="3" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="QY16" s="3" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="QZ16" s="3" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="RA16" s="3" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="RB16" s="3" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="RC16" s="3" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="RD16" s="3" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="RE16" s="3" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="RF16" s="3" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="RG16" s="3" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="RH16" s="3" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="RI16" s="3" t="n">
-        <v>51.5</v>
-      </c>
-      <c r="RJ16" s="3" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="RK16" s="3" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="RL16" s="3" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="RM16" s="3" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="RN16" s="3" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="RO16" s="3" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="RP16" s="3" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="RQ16" s="3" t="n">
-        <v>56.9</v>
-      </c>
       <c r="RR16" s="3" t="n">
-        <v>57.4</v>
+        <v>57.3</v>
       </c>
       <c r="RS16" s="3" t="n">
-        <v>57.8</v>
+        <v>57.7</v>
       </c>
       <c r="RT16" s="3" t="n">
-        <v>58.6</v>
+        <v>58.5</v>
       </c>
       <c r="RU16" s="3" t="n">
-        <v>58.3</v>
+        <v>58.2</v>
       </c>
       <c r="RV16" s="3" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="RW16" s="3" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="RX16" s="3" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="RY16" s="3" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="RZ16" s="3" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="SA16" s="3" t="n">
         <v>59.5</v>
       </c>
-      <c r="RW16" s="3" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="RX16" s="3" t="n">
-        <v>60.5</v>
-      </c>
-      <c r="RY16" s="3" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="RZ16" s="3" t="n">
+      <c r="SB16" s="3" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="SC16" s="3" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="SD16" s="3" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="SE16" s="3" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="SF16" s="3" t="n">
         <v>61.6</v>
       </c>
-      <c r="SA16" s="3" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="SB16" s="3" t="n">
-        <v>59.8</v>
-      </c>
-      <c r="SC16" s="3" t="n">
-        <v>61.4</v>
-      </c>
-      <c r="SD16" s="3" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="SE16" s="3" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="SF16" s="3" t="n">
-        <v>61.7</v>
-      </c>
       <c r="SG16" s="3" t="n">
-        <v>61.6</v>
+        <v>61.5</v>
       </c>
       <c r="SH16" s="3" t="n">
-        <v>62.7</v>
+        <v>62.6</v>
       </c>
       <c r="SI16" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="SJ16" s="3" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="SK16" s="3" t="n">
         <v>64.6</v>
       </c>
-      <c r="SJ16" s="3" t="n">
-        <v>64.9</v>
-      </c>
-      <c r="SK16" s="3" t="n">
-        <v>64.7</v>
-      </c>
       <c r="SL16" s="3" t="n">
-        <v>65.1</v>
+        <v>65.0</v>
       </c>
       <c r="SM16" s="3" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="SN16" s="3" t="n">
-        <v>65.3</v>
+        <v>65.2</v>
       </c>
       <c r="SO16" s="3" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="SP16" s="3" t="n">
         <v>67.8</v>
       </c>
-      <c r="SP16" s="3" t="n">
-        <v>67.9</v>
-      </c>
       <c r="SQ16" s="3" t="n">
-        <v>68.6</v>
+        <v>68.5</v>
       </c>
       <c r="SR16" s="3" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="SS16" s="3" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="ST16" s="3" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="SU16" s="3" t="n">
         <v>70.3</v>
       </c>
-      <c r="SS16" s="3" t="n">
+      <c r="SV16" s="3" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="SW16" s="3" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="SX16" s="3" t="n">
+        <v>73.4</v>
+      </c>
+      <c r="SY16" s="3" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="SZ16" s="3" t="n">
+        <v>72.4</v>
+      </c>
+      <c r="TA16" s="3" t="n">
+        <v>71.9</v>
+      </c>
+      <c r="TB16" s="3" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="TC16" s="3" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="TD16" s="3" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="TE16" s="3" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="TF16" s="3" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="TG16" s="3" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="TH16" s="3" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="TI16" s="3" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="TJ16" s="3" t="n">
+        <v>69.9</v>
+      </c>
+      <c r="TK16" s="3" t="n">
+        <v>70.1</v>
+      </c>
+      <c r="TL16" s="3" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="TM16" s="3" t="n">
+        <v>70.4</v>
+      </c>
+      <c r="TN16" s="3" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="TO16" s="3" t="n">
         <v>71.3</v>
       </c>
-      <c r="ST16" s="3" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="SU16" s="3" t="n">
+      <c r="TP16" s="3" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="TQ16" s="3" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="TR16" s="3" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="TS16" s="3" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="TT16" s="3" t="n">
+        <v>71.4</v>
+      </c>
+      <c r="TU16" s="3" t="n">
         <v>70.4</v>
       </c>
-      <c r="SV16" s="3" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="SW16" s="3" t="n">
-        <v>72.1</v>
-      </c>
-      <c r="SX16" s="3" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="SY16" s="3" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="SZ16" s="3" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="TA16" s="3" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="TB16" s="3" t="n">
-        <v>70.4</v>
-      </c>
-      <c r="TC16" s="3" t="n">
-        <v>73.6</v>
-      </c>
-      <c r="TD16" s="3" t="n">
-        <v>67.9</v>
-      </c>
-      <c r="TE16" s="3" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="TF16" s="3" t="n">
-        <v>68.1</v>
-      </c>
-      <c r="TG16" s="3" t="n">
-        <v>69.4</v>
-      </c>
-      <c r="TH16" s="3" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="TI16" s="3" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="TJ16" s="3" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="TK16" s="3" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="TL16" s="3" t="n">
-        <v>70.4</v>
-      </c>
-      <c r="TM16" s="3" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="TN16" s="3" t="n">
-        <v>69.1</v>
-      </c>
-      <c r="TO16" s="3" t="n">
+      <c r="TV16" s="3" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="TW16" s="3" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="TX16" s="3" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="TY16" s="3" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="TZ16" s="3" t="n">
+        <v>70.6</v>
+      </c>
+      <c r="UA16" s="3" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="UB16" s="3" t="n">
+        <v>70.1</v>
+      </c>
+      <c r="UC16" s="3" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="UD16" s="3" t="n">
         <v>71.4</v>
-      </c>
-      <c r="TP16" s="3" t="n">
-        <v>71.1</v>
-      </c>
-      <c r="TQ16" s="3" t="n">
-        <v>68.9</v>
-      </c>
-      <c r="TR16" s="3" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="TS16" s="3" t="n">
-        <v>68.9</v>
-      </c>
-      <c r="TT16" s="3" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="TU16" s="3" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="TV16" s="3" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="TW16" s="3" t="n">
-        <v>71.6</v>
-      </c>
-      <c r="TX16" s="3" t="n">
-        <v>69.4</v>
-      </c>
-      <c r="TY16" s="3" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="TZ16" s="3" t="n">
-        <v>70.7</v>
-      </c>
-      <c r="UA16" s="3" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="UB16" s="3" t="n">
-        <v>69.9</v>
-      </c>
-      <c r="UC16" s="3" t="n">
-        <v>70.4</v>
-      </c>
-      <c r="UD16" s="3" t="n">
-        <v>71.3</v>
       </c>
       <c r="UE16" s="3" t="n">
         <v>71.3</v>
@@ -52381,70 +52525,70 @@
         <v>71.7</v>
       </c>
       <c r="UG16" s="3" t="n">
-        <v>72.4</v>
+        <v>72.3</v>
       </c>
       <c r="UH16" s="3" t="n">
-        <v>72.6</v>
+        <v>72.5</v>
       </c>
       <c r="UI16" s="3" t="n">
-        <v>72.9</v>
+        <v>72.7</v>
       </c>
       <c r="UJ16" s="3" t="n">
-        <v>73.1</v>
+        <v>72.8</v>
       </c>
       <c r="UK16" s="3" t="n">
-        <v>74.7</v>
+        <v>74.5</v>
       </c>
       <c r="UL16" s="3" t="n">
-        <v>76.6</v>
+        <v>76.8</v>
       </c>
       <c r="UM16" s="3" t="n">
-        <v>74.2</v>
+        <v>74.4</v>
       </c>
       <c r="UN16" s="3" t="n">
-        <v>74.1</v>
+        <v>74.4</v>
       </c>
       <c r="UO16" s="3" t="n">
-        <v>75.3</v>
+        <v>75.5</v>
       </c>
       <c r="UP16" s="3" t="n">
-        <v>75.6</v>
+        <v>75.8</v>
       </c>
       <c r="UQ16" s="3" t="n">
         <v>76.1</v>
       </c>
       <c r="UR16" s="3" t="n">
-        <v>76.2</v>
+        <v>76.1</v>
       </c>
       <c r="US16" s="3" t="n">
-        <v>73.0</v>
+        <v>72.9</v>
       </c>
       <c r="UT16" s="3" t="n">
-        <v>75.3</v>
+        <v>75.1</v>
       </c>
       <c r="UU16" s="3" t="n">
-        <v>75.3</v>
+        <v>75.4</v>
       </c>
       <c r="UV16" s="3" t="n">
-        <v>77.3</v>
+        <v>76.9</v>
       </c>
       <c r="UW16" s="3" t="n">
-        <v>77.1</v>
+        <v>76.8</v>
       </c>
       <c r="UX16" s="3" t="n">
-        <v>79.8</v>
+        <v>80.1</v>
       </c>
       <c r="UY16" s="3" t="n">
-        <v>77.4</v>
+        <v>77.6</v>
       </c>
       <c r="UZ16" s="3" t="n">
-        <v>80.1</v>
+        <v>80.3</v>
       </c>
       <c r="VA16" s="3" t="n">
-        <v>79.7</v>
+        <v>79.9</v>
       </c>
       <c r="VB16" s="3" t="n">
-        <v>78.8</v>
+        <v>78.9</v>
       </c>
       <c r="VC16" s="3" t="n">
         <v>80.2</v>
@@ -52453,46 +52597,46 @@
         <v>79.0</v>
       </c>
       <c r="VE16" s="3" t="n">
-        <v>78.5</v>
+        <v>78.4</v>
       </c>
       <c r="VF16" s="3" t="n">
-        <v>79.6</v>
+        <v>79.3</v>
       </c>
       <c r="VG16" s="3" t="n">
         <v>80.9</v>
       </c>
       <c r="VH16" s="3" t="n">
-        <v>80.9</v>
+        <v>80.7</v>
       </c>
       <c r="VI16" s="3" t="n">
-        <v>81.0</v>
+        <v>80.8</v>
       </c>
       <c r="VJ16" s="3" t="n">
-        <v>81.5</v>
+        <v>81.6</v>
       </c>
       <c r="VK16" s="3" t="n">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="VL16" s="3" t="n">
-        <v>81.0</v>
+        <v>81.1</v>
       </c>
       <c r="VM16" s="3" t="n">
-        <v>82.0</v>
+        <v>82.2</v>
       </c>
       <c r="VN16" s="3" t="n">
         <v>82.5</v>
       </c>
       <c r="VO16" s="3" t="n">
-        <v>81.6</v>
+        <v>81.5</v>
       </c>
       <c r="VP16" s="3" t="n">
         <v>78.4</v>
       </c>
       <c r="VQ16" s="3" t="n">
-        <v>80.5</v>
+        <v>80.4</v>
       </c>
       <c r="VR16" s="3" t="n">
-        <v>81.0</v>
+        <v>80.8</v>
       </c>
       <c r="VS16" s="3" t="n">
         <v>79.1</v>
@@ -52501,25 +52645,25 @@
         <v>78.0</v>
       </c>
       <c r="VU16" s="3" t="n">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="VV16" s="3" t="n">
-        <v>77.1</v>
+        <v>77.2</v>
       </c>
       <c r="VW16" s="3" t="n">
         <v>78.7</v>
       </c>
       <c r="VX16" s="3" t="n">
-        <v>80.6</v>
+        <v>80.7</v>
       </c>
       <c r="VY16" s="3" t="n">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="VZ16" s="3" t="n">
-        <v>80.0</v>
+        <v>79.9</v>
       </c>
       <c r="WA16" s="3" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="WB16" s="3" t="n">
         <v>82.6</v>
@@ -52531,34 +52675,34 @@
         <v>81.1</v>
       </c>
       <c r="WE16" s="3" t="n">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="WF16" s="3" t="n">
-        <v>85.2</v>
+        <v>85.0</v>
       </c>
       <c r="WG16" s="3" t="n">
-        <v>83.7</v>
+        <v>83.6</v>
       </c>
       <c r="WH16" s="3" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="WI16" s="3" t="n">
-        <v>85.9</v>
+        <v>86.1</v>
       </c>
       <c r="WJ16" s="3" t="n">
-        <v>89.0</v>
+        <v>89.1</v>
       </c>
       <c r="WK16" s="3" t="n">
-        <v>87.1</v>
+        <v>87.0</v>
       </c>
       <c r="WL16" s="3" t="n">
-        <v>86.7</v>
+        <v>86.6</v>
       </c>
       <c r="WM16" s="3" t="n">
         <v>87.3</v>
       </c>
       <c r="WN16" s="3" t="n">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="WO16" s="3" t="n">
         <v>88.8</v>
@@ -52567,37 +52711,37 @@
         <v>88.5</v>
       </c>
       <c r="WQ16" s="3" t="n">
-        <v>89.9</v>
+        <v>89.8</v>
       </c>
       <c r="WR16" s="3" t="n">
         <v>89.1</v>
       </c>
       <c r="WS16" s="3" t="n">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="WT16" s="3" t="n">
-        <v>90.8</v>
+        <v>91.0</v>
       </c>
       <c r="WU16" s="3" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="WV16" s="3" t="n">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="WW16" s="3" t="n">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="WX16" s="3" t="n">
         <v>91.8</v>
       </c>
       <c r="WY16" s="3" t="n">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="WZ16" s="3" t="n">
-        <v>93.2</v>
+        <v>93.1</v>
       </c>
       <c r="XA16" s="3" t="n">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="XB16" s="3" t="n">
         <v>92.5</v>
@@ -52606,13 +52750,13 @@
         <v>92.7</v>
       </c>
       <c r="XD16" s="3" t="n">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="XE16" s="3" t="n">
         <v>91.3</v>
       </c>
       <c r="XF16" s="3" t="n">
-        <v>93.0</v>
+        <v>93.2</v>
       </c>
       <c r="XG16" s="3" t="n">
         <v>94.9</v>
@@ -52621,7 +52765,7 @@
         <v>92.8</v>
       </c>
       <c r="XI16" s="3" t="n">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="XJ16" s="3" t="n">
         <v>92.5</v>
@@ -52630,7 +52774,7 @@
         <v>94.4</v>
       </c>
       <c r="XL16" s="3" t="n">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="XM16" s="3" t="n">
         <v>95.0</v>
@@ -52639,22 +52783,22 @@
         <v>92.8</v>
       </c>
       <c r="XO16" s="3" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="XP16" s="3" t="n">
-        <v>94.1</v>
+        <v>94.0</v>
       </c>
       <c r="XQ16" s="3" t="n">
         <v>94.6</v>
       </c>
       <c r="XR16" s="3" t="n">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="XS16" s="3" t="n">
         <v>94.4</v>
       </c>
       <c r="XT16" s="3" t="n">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="XU16" s="3" t="n">
         <v>93.9</v>
@@ -52669,13 +52813,13 @@
         <v>95.0</v>
       </c>
       <c r="XY16" s="3" t="n">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="XZ16" s="3" t="n">
-        <v>94.8</v>
+        <v>94.9</v>
       </c>
       <c r="YA16" s="3" t="n">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="YB16" s="3" t="n">
         <v>95.0</v>
@@ -52687,7 +52831,7 @@
         <v>95.3</v>
       </c>
       <c r="YE16" s="3" t="n">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="YF16" s="3" t="n">
         <v>95.6</v>
@@ -52699,7 +52843,7 @@
         <v>94.7</v>
       </c>
       <c r="YI16" s="3" t="n">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="YJ16" s="3" t="n">
         <v>96.7</v>
@@ -52708,13 +52852,13 @@
         <v>97.1</v>
       </c>
       <c r="YL16" s="3" t="n">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="YM16" s="3" t="n">
-        <v>96.1</v>
+        <v>95.9</v>
       </c>
       <c r="YN16" s="3" t="n">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="YO16" s="3" t="n">
         <v>96.4</v>
@@ -52723,19 +52867,19 @@
         <v>100.0</v>
       </c>
       <c r="YQ16" s="3" t="n">
-        <v>97.2</v>
+        <v>97.4</v>
       </c>
       <c r="YR16" s="3" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="YS16" s="3" t="n">
         <v>98.5</v>
       </c>
       <c r="YT16" s="3" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="YU16" s="3" t="n">
         <v>99.8</v>
-      </c>
-      <c r="YU16" s="3" t="n">
-        <v>99.7</v>
       </c>
       <c r="YV16" s="3" t="n">
         <v>96.8</v>
@@ -52744,10 +52888,10 @@
         <v>98.4</v>
       </c>
       <c r="YX16" s="3" t="n">
-        <v>98.9</v>
+        <v>99.1</v>
       </c>
       <c r="YY16" s="3" t="n">
-        <v>100.9</v>
+        <v>100.6</v>
       </c>
       <c r="YZ16" s="3" t="n">
         <v>103.2</v>
@@ -52759,221 +52903,230 @@
         <v>103.2</v>
       </c>
       <c r="ZC16" s="3" t="n">
-        <v>103.0</v>
+        <v>103.2</v>
       </c>
       <c r="ZD16" s="3" t="n">
         <v>101.4</v>
       </c>
       <c r="ZE16" s="3" t="n">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="ZF16" s="3" t="n">
-        <v>103.3</v>
+        <v>103.1</v>
       </c>
       <c r="ZG16" s="3" t="n">
-        <v>104.3</v>
+        <v>104.5</v>
       </c>
       <c r="ZH16" s="3" t="n">
         <v>105.3</v>
       </c>
       <c r="ZI16" s="3" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="ZJ16" s="3" t="n">
-        <v>104.0</v>
+        <v>104.1</v>
       </c>
       <c r="ZK16" s="3" t="n">
-        <v>101.7</v>
+        <v>101.4</v>
       </c>
       <c r="ZL16" s="3" t="n">
         <v>104.7</v>
       </c>
       <c r="ZM16" s="3" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="ZN16" s="3" t="n">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="ZO16" s="3" t="n">
-        <v>104.0</v>
+        <v>104.2</v>
       </c>
       <c r="ZP16" s="3" t="n">
-        <v>105.8</v>
+        <v>106.0</v>
       </c>
       <c r="ZQ16" s="3" t="n">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="ZR16" s="3" t="n">
-        <v>105.3</v>
+        <v>105.0</v>
       </c>
       <c r="ZS16" s="3" t="n">
-        <v>104.9</v>
+        <v>105.1</v>
       </c>
       <c r="ZT16" s="3" t="n">
-        <v>106.0</v>
+        <v>105.9</v>
       </c>
       <c r="ZU16" s="3" t="n">
         <v>105.0</v>
       </c>
       <c r="ZV16" s="3" t="n">
-        <v>104.5</v>
+        <v>104.7</v>
       </c>
       <c r="ZW16" s="3" t="n">
         <v>107.4</v>
       </c>
       <c r="ZX16" s="3" t="n">
-        <v>106.6</v>
+        <v>106.1</v>
       </c>
       <c r="ZY16" s="3" t="n">
-        <v>109.8</v>
+        <v>110.1</v>
       </c>
       <c r="ZZ16" s="3" t="n">
-        <v>107.5</v>
+        <v>107.8</v>
       </c>
       <c r="AAA16" s="3" t="n">
-        <v>109.1</v>
+        <v>109.3</v>
       </c>
       <c r="AAB16" s="3" t="n">
-        <v>110.4</v>
+        <v>110.6</v>
       </c>
       <c r="AAC16" s="3" t="n">
-        <v>112.2</v>
+        <v>111.8</v>
       </c>
       <c r="AAD16" s="3" t="n">
-        <v>111.5</v>
+        <v>110.9</v>
       </c>
       <c r="AAE16" s="3" t="n">
-        <v>109.7</v>
+        <v>109.9</v>
       </c>
       <c r="AAF16" s="3" t="n">
-        <v>110.6</v>
+        <v>110.5</v>
       </c>
       <c r="AAG16" s="3" t="n">
         <v>110.9</v>
       </c>
       <c r="AAH16" s="3" t="n">
-        <v>110.3</v>
+        <v>110.6</v>
       </c>
       <c r="AAI16" s="3" t="n">
-        <v>109.1</v>
+        <v>108.8</v>
       </c>
       <c r="AAJ16" s="3" t="n">
-        <v>110.6</v>
+        <v>110.2</v>
       </c>
       <c r="AAK16" s="3" t="n">
-        <v>111.0</v>
+        <v>111.4</v>
       </c>
       <c r="AAL16" s="3" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="AAM16" s="3" t="n">
+        <v>114.6</v>
+      </c>
+      <c r="AAN16" s="3" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="AAO16" s="3" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="AAP16" s="3" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="AAQ16" s="3" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="AAR16" s="3" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="AAS16" s="3" t="n">
         <v>110.9</v>
       </c>
-      <c r="AAM16" s="3" t="n">
-        <v>114.3</v>
-      </c>
-      <c r="AAN16" s="3" t="n">
-        <v>108.4</v>
-      </c>
-      <c r="AAO16" s="3" t="n">
-        <v>114.9</v>
-      </c>
-      <c r="AAP16" s="3" t="n">
-        <v>113.4</v>
-      </c>
-      <c r="AAQ16" s="3" t="n">
-        <v>113.0</v>
-      </c>
-      <c r="AAR16" s="3" t="n">
-        <v>111.7</v>
-      </c>
-      <c r="AAS16" s="3" t="n">
-        <v>110.8</v>
-      </c>
       <c r="AAT16" s="3" t="n">
-        <v>114.6</v>
+        <v>115.1</v>
       </c>
       <c r="AAU16" s="3" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="AAV16" s="3" t="n">
         <v>112.5</v>
       </c>
-      <c r="AAV16" s="3" t="n">
-        <v>113.0</v>
-      </c>
       <c r="AAW16" s="3" t="n">
-        <v>115.3</v>
+        <v>116.0</v>
       </c>
       <c r="AAX16" s="3" t="n">
-        <v>116.2</v>
+        <v>117.1</v>
       </c>
       <c r="AAY16" s="3" t="n">
-        <v>113.0</v>
+        <v>113.5</v>
       </c>
       <c r="AAZ16" s="3" t="n">
-        <v>105.7</v>
+        <v>106.2</v>
       </c>
       <c r="ABA16" s="3" t="n">
-        <v>106.1</v>
+        <v>105.4</v>
       </c>
       <c r="ABB16" s="3" t="n">
-        <v>111.1</v>
+        <v>109.9</v>
       </c>
       <c r="ABC16" s="3" t="n">
         <v>115.0</v>
       </c>
       <c r="ABD16" s="3" t="n">
-        <v>118.0</v>
+        <v>117.3</v>
       </c>
       <c r="ABE16" s="3" t="n">
-        <v>110.8</v>
+        <v>110.7</v>
       </c>
       <c r="ABF16" s="3" t="n">
-        <v>114.1</v>
+        <v>114.7</v>
       </c>
       <c r="ABG16" s="3" t="n">
         <v>115.4</v>
       </c>
       <c r="ABH16" s="3" t="n">
-        <v>114.6</v>
+        <v>114.0</v>
       </c>
       <c r="ABI16" s="3" t="n">
-        <v>114.2</v>
+        <v>115.2</v>
       </c>
       <c r="ABJ16" s="3" t="n">
-        <v>114.3</v>
+        <v>115.2</v>
       </c>
       <c r="ABK16" s="3" t="n">
-        <v>116.1</v>
+        <v>117.0</v>
       </c>
       <c r="ABL16" s="3" t="n">
-        <v>115.1</v>
+        <v>116.0</v>
       </c>
       <c r="ABM16" s="3" t="n">
-        <v>118.0</v>
+        <v>117.4</v>
       </c>
       <c r="ABN16" s="3" t="n">
-        <v>120.5</v>
+        <v>119.3</v>
       </c>
       <c r="ABO16" s="3" t="n">
-        <v>118.3</v>
+        <v>119.1</v>
       </c>
       <c r="ABP16" s="3" t="n">
+        <v>119.9</v>
+      </c>
+      <c r="ABQ16" s="3" t="n">
+        <v>119.9</v>
+      </c>
+      <c r="ABR16" s="3" t="n">
         <v>120.0</v>
-      </c>
-      <c r="ABQ16" s="3" t="n">
-        <v>119.4</v>
-      </c>
-      <c r="ABR16" s="3" t="n">
-        <v>118.4</v>
       </c>
       <c r="ABS16" s="3" t="n">
         <v>121.3</v>
       </c>
       <c r="ABT16" s="3" t="n">
-        <v>121.5</v>
-      </c>
-      <c r="ABU16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABV16" s="1" t="inlineStr">
+        <v>121.3</v>
+      </c>
+      <c r="ABU16" s="3" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="ABV16" s="3" t="n">
+        <v>123.2</v>
+      </c>
+      <c r="ABW16" s="3" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="ABX16" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABY16" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -55111,733 +55264,733 @@
         </is>
       </c>
       <c r="PK17" s="3" t="n">
+        <v>75.9</v>
+      </c>
+      <c r="PL17" s="3" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="PM17" s="3" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="PN17" s="3" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="PO17" s="3" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="PP17" s="3" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="PQ17" s="3" t="n">
+        <v>68.1</v>
+      </c>
+      <c r="PR17" s="3" t="n">
+        <v>67.6</v>
+      </c>
+      <c r="PS17" s="3" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="PT17" s="3" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="PU17" s="3" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="PV17" s="3" t="n">
+        <v>77.9</v>
+      </c>
+      <c r="PW17" s="3" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="PX17" s="3" t="n">
         <v>75.2</v>
       </c>
-      <c r="PL17" s="3" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="PM17" s="3" t="n">
-        <v>59.1</v>
-      </c>
-      <c r="PN17" s="3" t="n">
+      <c r="PY17" s="3" t="n">
+        <v>71.4</v>
+      </c>
+      <c r="PZ17" s="3" t="n">
+        <v>86.4</v>
+      </c>
+      <c r="QA17" s="3" t="n">
+        <v>73.1</v>
+      </c>
+      <c r="QB17" s="3" t="n">
         <v>72.5</v>
       </c>
-      <c r="PO17" s="3" t="n">
+      <c r="QC17" s="3" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="QD17" s="3" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="QE17" s="3" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="QF17" s="3" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="QG17" s="3" t="n">
+        <v>69.4</v>
+      </c>
+      <c r="QH17" s="3" t="n">
+        <v>79.9</v>
+      </c>
+      <c r="QI17" s="3" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="QJ17" s="3" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="QK17" s="3" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="QL17" s="3" t="n">
+        <v>80.4</v>
+      </c>
+      <c r="QM17" s="3" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="QN17" s="3" t="n">
+        <v>73.4</v>
+      </c>
+      <c r="QO17" s="3" t="n">
+        <v>83.6</v>
+      </c>
+      <c r="QP17" s="3" t="n">
+        <v>75.4</v>
+      </c>
+      <c r="QQ17" s="3" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="QR17" s="3" t="n">
+        <v>79.6</v>
+      </c>
+      <c r="QS17" s="3" t="n">
+        <v>69.4</v>
+      </c>
+      <c r="QT17" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="QU17" s="3" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="QV17" s="3" t="n">
+        <v>67.1</v>
+      </c>
+      <c r="QW17" s="3" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="QX17" s="3" t="n">
         <v>62.9</v>
       </c>
-      <c r="PP17" s="3" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="PQ17" s="3" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="PR17" s="3" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="PS17" s="3" t="n">
-        <v>70.6</v>
-      </c>
-      <c r="PT17" s="3" t="n">
-        <v>73.1</v>
-      </c>
-      <c r="PU17" s="3" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="PV17" s="3" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="PW17" s="3" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="PX17" s="3" t="n">
+      <c r="QY17" s="3" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="QZ17" s="3" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="RA17" s="3" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="RB17" s="3" t="n">
+        <v>67.6</v>
+      </c>
+      <c r="RC17" s="3" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="RD17" s="3" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="RE17" s="3" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="RF17" s="3" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="RG17" s="3" t="n">
+        <v>67.4</v>
+      </c>
+      <c r="RH17" s="3" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="RI17" s="3" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="RJ17" s="3" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="RK17" s="3" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="RL17" s="3" t="n">
+        <v>74.6</v>
+      </c>
+      <c r="RM17" s="3" t="n">
+        <v>74.4</v>
+      </c>
+      <c r="RN17" s="3" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="RO17" s="3" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="RP17" s="3" t="n">
         <v>74.5</v>
       </c>
-      <c r="PY17" s="3" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="PZ17" s="3" t="n">
+      <c r="RQ17" s="3" t="n">
+        <v>77.9</v>
+      </c>
+      <c r="RR17" s="3" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="RS17" s="3" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="RT17" s="3" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="RU17" s="3" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="RV17" s="3" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="RW17" s="3" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="RX17" s="3" t="n">
+        <v>86.9</v>
+      </c>
+      <c r="RY17" s="3" t="n">
+        <v>80.9</v>
+      </c>
+      <c r="RZ17" s="3" t="n">
+        <v>90.1</v>
+      </c>
+      <c r="SA17" s="3" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="SB17" s="3" t="n">
+        <v>77.6</v>
+      </c>
+      <c r="SC17" s="3" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="SD17" s="3" t="n">
+        <v>78.9</v>
+      </c>
+      <c r="SE17" s="3" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="SF17" s="3" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="SG17" s="3" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="SH17" s="3" t="n">
+        <v>82.1</v>
+      </c>
+      <c r="SI17" s="3" t="n">
+        <v>87.4</v>
+      </c>
+      <c r="SJ17" s="3" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="SK17" s="3" t="n">
         <v>85.7</v>
       </c>
-      <c r="QA17" s="3" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="QB17" s="3" t="n">
-        <v>71.9</v>
-      </c>
-      <c r="QC17" s="3" t="n">
+      <c r="SL17" s="3" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="SM17" s="3" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="SN17" s="3" t="n">
+        <v>84.3</v>
+      </c>
+      <c r="SO17" s="3" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="SP17" s="3" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="SQ17" s="3" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="SR17" s="3" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="SS17" s="3" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="ST17" s="3" t="n">
+        <v>94.9</v>
+      </c>
+      <c r="SU17" s="3" t="n">
+        <v>96.6</v>
+      </c>
+      <c r="SV17" s="3" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="SW17" s="3" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="SX17" s="3" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="SY17" s="3" t="n">
+        <v>97.4</v>
+      </c>
+      <c r="SZ17" s="3" t="n">
+        <v>94.6</v>
+      </c>
+      <c r="TA17" s="3" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="TB17" s="3" t="n">
+        <v>80.6</v>
+      </c>
+      <c r="TC17" s="3" t="n">
+        <v>95.1</v>
+      </c>
+      <c r="TD17" s="3" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="TE17" s="3" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="TF17" s="3" t="n">
+        <v>86.9</v>
+      </c>
+      <c r="TG17" s="3" t="n">
+        <v>90.1</v>
+      </c>
+      <c r="TH17" s="3" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="TI17" s="3" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="TJ17" s="3" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="TK17" s="3" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="TL17" s="3" t="n">
+        <v>84.9</v>
+      </c>
+      <c r="TM17" s="3" t="n">
+        <v>84.9</v>
+      </c>
+      <c r="TN17" s="3" t="n">
+        <v>83.4</v>
+      </c>
+      <c r="TO17" s="3" t="n">
+        <v>80.6</v>
+      </c>
+      <c r="TP17" s="3" t="n">
+        <v>84.9</v>
+      </c>
+      <c r="TQ17" s="3" t="n">
+        <v>82.4</v>
+      </c>
+      <c r="TR17" s="3" t="n">
+        <v>82.9</v>
+      </c>
+      <c r="TS17" s="3" t="n">
+        <v>82.4</v>
+      </c>
+      <c r="TT17" s="3" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="TU17" s="3" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="TV17" s="3" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="TW17" s="3" t="n">
         <v>82.8</v>
       </c>
-      <c r="QD17" s="3" t="n">
-        <v>72.6</v>
-      </c>
-      <c r="QE17" s="3" t="n">
-        <v>75.9</v>
-      </c>
-      <c r="QF17" s="3" t="n">
-        <v>84.5</v>
-      </c>
-      <c r="QG17" s="3" t="n">
-        <v>68.9</v>
-      </c>
-      <c r="QH17" s="3" t="n">
+      <c r="TX17" s="3" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="TY17" s="3" t="n">
+        <v>81.1</v>
+      </c>
+      <c r="TZ17" s="3" t="n">
+        <v>80.9</v>
+      </c>
+      <c r="UA17" s="3" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="UB17" s="3" t="n">
         <v>79.4</v>
       </c>
-      <c r="QI17" s="3" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="QJ17" s="3" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="QK17" s="3" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="QL17" s="3" t="n">
-        <v>79.9</v>
-      </c>
-      <c r="QM17" s="3" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="QN17" s="3" t="n">
-        <v>72.9</v>
-      </c>
-      <c r="QO17" s="3" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="QP17" s="3" t="n">
-        <v>74.9</v>
-      </c>
-      <c r="QQ17" s="3" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="QR17" s="3" t="n">
-        <v>79.1</v>
-      </c>
-      <c r="QS17" s="3" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="QT17" s="3" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="QU17" s="3" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="QV17" s="3" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="QW17" s="3" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="QX17" s="3" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="QY17" s="3" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="QZ17" s="3" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="RA17" s="3" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="RB17" s="3" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="RC17" s="3" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="RD17" s="3" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="RE17" s="3" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="RF17" s="3" t="n">
-        <v>60.6</v>
-      </c>
-      <c r="RG17" s="3" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="RH17" s="3" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="RI17" s="3" t="n">
-        <v>69.9</v>
-      </c>
-      <c r="RJ17" s="3" t="n">
-        <v>70.4</v>
-      </c>
-      <c r="RK17" s="3" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="RL17" s="3" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="RM17" s="3" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="RN17" s="3" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="RO17" s="3" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="RP17" s="3" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="RQ17" s="3" t="n">
-        <v>77.4</v>
-      </c>
-      <c r="RR17" s="3" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="RS17" s="3" t="n">
-        <v>77.4</v>
-      </c>
-      <c r="RT17" s="3" t="n">
-        <v>75.1</v>
-      </c>
-      <c r="RU17" s="3" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="RV17" s="3" t="n">
-        <v>84.5</v>
-      </c>
-      <c r="RW17" s="3" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="RX17" s="3" t="n">
+      <c r="UC17" s="3" t="n">
+        <v>80.6</v>
+      </c>
+      <c r="UD17" s="3" t="n">
+        <v>81.9</v>
+      </c>
+      <c r="UE17" s="3" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="UF17" s="3" t="n">
+        <v>82.4</v>
+      </c>
+      <c r="UG17" s="3" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="UH17" s="3" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="UI17" s="3" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="UJ17" s="3" t="n">
+        <v>84.6</v>
+      </c>
+      <c r="UK17" s="3" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="UL17" s="3" t="n">
+        <v>86.1</v>
+      </c>
+      <c r="UM17" s="3" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="UN17" s="3" t="n">
+        <v>87.6</v>
+      </c>
+      <c r="UO17" s="3" t="n">
         <v>86.4</v>
       </c>
-      <c r="RY17" s="3" t="n">
-        <v>80.4</v>
-      </c>
-      <c r="RZ17" s="3" t="n">
-        <v>89.6</v>
-      </c>
-      <c r="SA17" s="3" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="SB17" s="3" t="n">
-        <v>77.1</v>
-      </c>
-      <c r="SC17" s="3" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="SD17" s="3" t="n">
-        <v>78.4</v>
-      </c>
-      <c r="SE17" s="3" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="SF17" s="3" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="SG17" s="3" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="SH17" s="3" t="n">
-        <v>81.6</v>
-      </c>
-      <c r="SI17" s="3" t="n">
+      <c r="UP17" s="3" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="UQ17" s="3" t="n">
         <v>86.8</v>
       </c>
-      <c r="SJ17" s="3" t="n">
-        <v>83.4</v>
-      </c>
-      <c r="SK17" s="3" t="n">
+      <c r="UR17" s="3" t="n">
+        <v>85.4</v>
+      </c>
+      <c r="US17" s="3" t="n">
         <v>85.1</v>
-      </c>
-      <c r="SL17" s="3" t="n">
-        <v>86.6</v>
-      </c>
-      <c r="SM17" s="3" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="SN17" s="3" t="n">
-        <v>83.7</v>
-      </c>
-      <c r="SO17" s="3" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="SP17" s="3" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="SQ17" s="3" t="n">
-        <v>87.6</v>
-      </c>
-      <c r="SR17" s="3" t="n">
-        <v>90.9</v>
-      </c>
-      <c r="SS17" s="3" t="n">
-        <v>96.6</v>
-      </c>
-      <c r="ST17" s="3" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="SU17" s="3" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="SV17" s="3" t="n">
-        <v>87.4</v>
-      </c>
-      <c r="SW17" s="3" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="SX17" s="3" t="n">
-        <v>89.9</v>
-      </c>
-      <c r="SY17" s="3" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="SZ17" s="3" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="TA17" s="3" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="TB17" s="3" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="TC17" s="3" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="TD17" s="3" t="n">
-        <v>80.1</v>
-      </c>
-      <c r="TE17" s="3" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="TF17" s="3" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="TG17" s="3" t="n">
-        <v>89.4</v>
-      </c>
-      <c r="TH17" s="3" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="TI17" s="3" t="n">
-        <v>84.8</v>
-      </c>
-      <c r="TJ17" s="3" t="n">
-        <v>87.4</v>
-      </c>
-      <c r="TK17" s="3" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="TL17" s="3" t="n">
-        <v>84.1</v>
-      </c>
-      <c r="TM17" s="3" t="n">
-        <v>84.1</v>
-      </c>
-      <c r="TN17" s="3" t="n">
-        <v>82.6</v>
-      </c>
-      <c r="TO17" s="3" t="n">
-        <v>79.9</v>
-      </c>
-      <c r="TP17" s="3" t="n">
-        <v>84.2</v>
-      </c>
-      <c r="TQ17" s="3" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="TR17" s="3" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="TS17" s="3" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="TT17" s="3" t="n">
-        <v>86.1</v>
-      </c>
-      <c r="TU17" s="3" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="TV17" s="3" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="TW17" s="3" t="n">
-        <v>82.1</v>
-      </c>
-      <c r="TX17" s="3" t="n">
-        <v>81.6</v>
-      </c>
-      <c r="TY17" s="3" t="n">
-        <v>80.4</v>
-      </c>
-      <c r="TZ17" s="3" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="UA17" s="3" t="n">
-        <v>79.1</v>
-      </c>
-      <c r="UB17" s="3" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="UC17" s="3" t="n">
-        <v>80.4</v>
-      </c>
-      <c r="UD17" s="3" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="UE17" s="3" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="UF17" s="3" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="UG17" s="3" t="n">
-        <v>83.4</v>
-      </c>
-      <c r="UH17" s="3" t="n">
-        <v>84.6</v>
-      </c>
-      <c r="UI17" s="3" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="UJ17" s="3" t="n">
-        <v>84.1</v>
-      </c>
-      <c r="UK17" s="3" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="UL17" s="3" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="UM17" s="3" t="n">
-        <v>86.3</v>
-      </c>
-      <c r="UN17" s="3" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="UO17" s="3" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="UP17" s="3" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="UQ17" s="3" t="n">
-        <v>86.6</v>
-      </c>
-      <c r="UR17" s="3" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="US17" s="3" t="n">
-        <v>84.9</v>
       </c>
       <c r="UT17" s="3" t="n">
         <v>81.9</v>
       </c>
       <c r="UU17" s="3" t="n">
-        <v>83.3</v>
+        <v>83.7</v>
       </c>
       <c r="UV17" s="3" t="n">
-        <v>84.6</v>
+        <v>84.9</v>
       </c>
       <c r="UW17" s="3" t="n">
-        <v>83.7</v>
+        <v>84.2</v>
       </c>
       <c r="UX17" s="3" t="n">
-        <v>87.7</v>
+        <v>85.1</v>
       </c>
       <c r="UY17" s="3" t="n">
-        <v>83.8</v>
+        <v>84.4</v>
       </c>
       <c r="UZ17" s="3" t="n">
         <v>85.3</v>
       </c>
       <c r="VA17" s="3" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="VB17" s="3" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="VC17" s="3" t="n">
         <v>85.6</v>
       </c>
-      <c r="VB17" s="3" t="n">
-        <v>84.4</v>
-      </c>
-      <c r="VC17" s="3" t="n">
-        <v>85.4</v>
-      </c>
       <c r="VD17" s="3" t="n">
-        <v>84.4</v>
+        <v>84.9</v>
       </c>
       <c r="VE17" s="3" t="n">
-        <v>85.9</v>
+        <v>86.1</v>
       </c>
       <c r="VF17" s="3" t="n">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="VG17" s="3" t="n">
-        <v>87.2</v>
+        <v>87.5</v>
       </c>
       <c r="VH17" s="3" t="n">
-        <v>87.5</v>
+        <v>87.7</v>
       </c>
       <c r="VI17" s="3" t="n">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="VJ17" s="3" t="n">
-        <v>86.3</v>
+        <v>84.6</v>
       </c>
       <c r="VK17" s="3" t="n">
-        <v>89.6</v>
+        <v>89.9</v>
       </c>
       <c r="VL17" s="3" t="n">
         <v>86.6</v>
       </c>
       <c r="VM17" s="3" t="n">
-        <v>86.7</v>
+        <v>87.1</v>
       </c>
       <c r="VN17" s="3" t="n">
-        <v>88.3</v>
+        <v>88.7</v>
       </c>
       <c r="VO17" s="3" t="n">
-        <v>87.9</v>
+        <v>88.2</v>
       </c>
       <c r="VP17" s="3" t="n">
         <v>88.9</v>
       </c>
       <c r="VQ17" s="3" t="n">
-        <v>88.4</v>
+        <v>88.6</v>
       </c>
       <c r="VR17" s="3" t="n">
-        <v>87.8</v>
+        <v>88.0</v>
       </c>
       <c r="VS17" s="3" t="n">
         <v>87.1</v>
       </c>
       <c r="VT17" s="3" t="n">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="VU17" s="3" t="n">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="VV17" s="3" t="n">
-        <v>80.2</v>
+        <v>79.1</v>
       </c>
       <c r="VW17" s="3" t="n">
         <v>88.3</v>
       </c>
       <c r="VX17" s="3" t="n">
-        <v>89.1</v>
+        <v>89.5</v>
       </c>
       <c r="VY17" s="3" t="n">
         <v>90.0</v>
       </c>
       <c r="VZ17" s="3" t="n">
-        <v>88.2</v>
+        <v>88.5</v>
       </c>
       <c r="WA17" s="3" t="n">
-        <v>88.8</v>
+        <v>89.5</v>
       </c>
       <c r="WB17" s="3" t="n">
-        <v>91.1</v>
+        <v>90.5</v>
       </c>
       <c r="WC17" s="3" t="n">
-        <v>90.2</v>
+        <v>90.6</v>
       </c>
       <c r="WD17" s="3" t="n">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="WE17" s="3" t="n">
-        <v>94.2</v>
+        <v>93.9</v>
       </c>
       <c r="WF17" s="3" t="n">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="WG17" s="3" t="n">
-        <v>92.3</v>
+        <v>92.5</v>
       </c>
       <c r="WH17" s="3" t="n">
-        <v>92.7</v>
+        <v>92.0</v>
       </c>
       <c r="WI17" s="3" t="n">
-        <v>95.4</v>
+        <v>95.6</v>
       </c>
       <c r="WJ17" s="3" t="n">
         <v>98.9</v>
       </c>
       <c r="WK17" s="3" t="n">
-        <v>94.7</v>
+        <v>95.0</v>
       </c>
       <c r="WL17" s="3" t="n">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="WM17" s="3" t="n">
-        <v>96.1</v>
+        <v>96.6</v>
       </c>
       <c r="WN17" s="3" t="n">
-        <v>101.0</v>
+        <v>100.2</v>
       </c>
       <c r="WO17" s="3" t="n">
-        <v>97.3</v>
+        <v>97.8</v>
       </c>
       <c r="WP17" s="3" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="WQ17" s="3" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="WR17" s="3" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="WS17" s="3" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="WT17" s="3" t="n">
         <v>101.8</v>
       </c>
-      <c r="WS17" s="3" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="WT17" s="3" t="n">
-        <v>102.2</v>
-      </c>
       <c r="WU17" s="3" t="n">
-        <v>114.4</v>
+        <v>114.7</v>
       </c>
       <c r="WV17" s="3" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="WW17" s="3" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="WX17" s="3" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="WY17" s="3" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="WZ17" s="3" t="n">
+        <v>106.9</v>
+      </c>
+      <c r="XA17" s="3" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="XB17" s="3" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="XC17" s="3" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="XD17" s="3" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="XE17" s="3" t="n">
         <v>101.8</v>
       </c>
-      <c r="WW17" s="3" t="n">
-        <v>104.5</v>
-      </c>
-      <c r="WX17" s="3" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="WY17" s="3" t="n">
-        <v>104.7</v>
-      </c>
-      <c r="WZ17" s="3" t="n">
-        <v>107.7</v>
-      </c>
-      <c r="XA17" s="3" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="XB17" s="3" t="n">
-        <v>108.7</v>
-      </c>
-      <c r="XC17" s="3" t="n">
-        <v>106.5</v>
-      </c>
-      <c r="XD17" s="3" t="n">
-        <v>106.5</v>
-      </c>
-      <c r="XE17" s="3" t="n">
-        <v>102.0</v>
-      </c>
       <c r="XF17" s="3" t="n">
-        <v>108.7</v>
+        <v>108.3</v>
       </c>
       <c r="XG17" s="3" t="n">
-        <v>108.2</v>
+        <v>108.0</v>
       </c>
       <c r="XH17" s="3" t="n">
-        <v>108.0</v>
+        <v>108.5</v>
       </c>
       <c r="XI17" s="3" t="n">
-        <v>105.3</v>
+        <v>105.6</v>
       </c>
       <c r="XJ17" s="3" t="n">
-        <v>107.6</v>
+        <v>107.4</v>
       </c>
       <c r="XK17" s="3" t="n">
-        <v>109.0</v>
+        <v>108.6</v>
       </c>
       <c r="XL17" s="3" t="n">
-        <v>107.2</v>
+        <v>106.9</v>
       </c>
       <c r="XM17" s="3" t="n">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
       <c r="XN17" s="3" t="n">
         <v>105.5</v>
       </c>
       <c r="XO17" s="3" t="n">
-        <v>104.1</v>
+        <v>105.7</v>
       </c>
       <c r="XP17" s="3" t="n">
-        <v>108.8</v>
+        <v>108.6</v>
       </c>
       <c r="XQ17" s="3" t="n">
-        <v>113.5</v>
+        <v>113.0</v>
       </c>
       <c r="XR17" s="3" t="n">
-        <v>107.9</v>
+        <v>107.7</v>
       </c>
       <c r="XS17" s="3" t="n">
-        <v>107.6</v>
+        <v>107.8</v>
       </c>
       <c r="XT17" s="3" t="n">
         <v>107.6</v>
       </c>
       <c r="XU17" s="3" t="n">
-        <v>110.9</v>
+        <v>110.7</v>
       </c>
       <c r="XV17" s="3" t="n">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="XW17" s="3" t="n">
-        <v>109.5</v>
+        <v>108.8</v>
       </c>
       <c r="XX17" s="3" t="n">
-        <v>109.4</v>
+        <v>109.2</v>
       </c>
       <c r="XY17" s="3" t="n">
-        <v>105.8</v>
+        <v>106.0</v>
       </c>
       <c r="XZ17" s="3" t="n">
-        <v>107.3</v>
+        <v>107.6</v>
       </c>
       <c r="YA17" s="3" t="n">
-        <v>106.8</v>
+        <v>108.0</v>
       </c>
       <c r="YB17" s="3" t="n">
         <v>105.0</v>
       </c>
       <c r="YC17" s="3" t="n">
-        <v>113.2</v>
+        <v>112.7</v>
       </c>
       <c r="YD17" s="3" t="n">
-        <v>107.9</v>
+        <v>107.6</v>
       </c>
       <c r="YE17" s="3" t="n">
-        <v>107.5</v>
+        <v>107.4</v>
       </c>
       <c r="YF17" s="3" t="n">
-        <v>104.8</v>
+        <v>105.0</v>
       </c>
       <c r="YG17" s="3" t="n">
-        <v>105.1</v>
+        <v>105.0</v>
       </c>
       <c r="YH17" s="3" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="YI17" s="3" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="YJ17" s="3" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="YK17" s="3" t="n">
         <v>103.0</v>
       </c>
-      <c r="YI17" s="3" t="n">
-        <v>104.1</v>
-      </c>
-      <c r="YJ17" s="3" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="YK17" s="3" t="n">
-        <v>103.2</v>
-      </c>
       <c r="YL17" s="3" t="n">
-        <v>106.2</v>
+        <v>106.5</v>
       </c>
       <c r="YM17" s="3" t="n">
-        <v>98.2</v>
+        <v>99.0</v>
       </c>
       <c r="YN17" s="3" t="n">
         <v>97.1</v>
       </c>
       <c r="YO17" s="3" t="n">
-        <v>98.4</v>
+        <v>97.9</v>
       </c>
       <c r="YP17" s="3" t="n">
-        <v>104.6</v>
+        <v>104.2</v>
       </c>
       <c r="YQ17" s="3" t="n">
-        <v>98.3</v>
+        <v>99.0</v>
       </c>
       <c r="YR17" s="3" t="n">
-        <v>103.0</v>
+        <v>102.5</v>
       </c>
       <c r="YS17" s="3" t="n">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="YT17" s="3" t="n">
         <v>101.2</v>
@@ -55846,73 +55999,73 @@
         <v>102.5</v>
       </c>
       <c r="YV17" s="3" t="n">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="YW17" s="3" t="n">
         <v>100.1</v>
       </c>
       <c r="YX17" s="3" t="n">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="YY17" s="3" t="n">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="YZ17" s="3" t="n">
         <v>105.2</v>
       </c>
       <c r="ZA17" s="3" t="n">
-        <v>102.1</v>
+        <v>101.3</v>
       </c>
       <c r="ZB17" s="3" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="ZC17" s="3" t="n">
-        <v>102.3</v>
+        <v>103.2</v>
       </c>
       <c r="ZD17" s="3" t="n">
-        <v>98.9</v>
+        <v>98.7</v>
       </c>
       <c r="ZE17" s="3" t="n">
-        <v>100.3</v>
+        <v>100.6</v>
       </c>
       <c r="ZF17" s="3" t="n">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="ZG17" s="3" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="ZH17" s="3" t="n">
-        <v>100.8</v>
+        <v>101.1</v>
       </c>
       <c r="ZI17" s="3" t="n">
         <v>102.5</v>
       </c>
       <c r="ZJ17" s="3" t="n">
-        <v>104.0</v>
+        <v>103.4</v>
       </c>
       <c r="ZK17" s="3" t="n">
-        <v>101.2</v>
+        <v>101.0</v>
       </c>
       <c r="ZL17" s="3" t="n">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="ZM17" s="3" t="n">
-        <v>98.1</v>
+        <v>97.4</v>
       </c>
       <c r="ZN17" s="3" t="n">
         <v>99.5</v>
       </c>
       <c r="ZO17" s="3" t="n">
-        <v>98.2</v>
+        <v>98.9</v>
       </c>
       <c r="ZP17" s="3" t="n">
-        <v>100.1</v>
+        <v>100.6</v>
       </c>
       <c r="ZQ17" s="3" t="n">
-        <v>96.4</v>
+        <v>96.7</v>
       </c>
       <c r="ZR17" s="3" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="ZS17" s="3" t="n">
         <v>97.3</v>
@@ -55921,52 +56074,52 @@
         <v>97.2</v>
       </c>
       <c r="ZU17" s="3" t="n">
-        <v>96.1</v>
+        <v>96.3</v>
       </c>
       <c r="ZV17" s="3" t="n">
-        <v>98.6</v>
+        <v>98.0</v>
       </c>
       <c r="ZW17" s="3" t="n">
-        <v>99.4</v>
+        <v>98.9</v>
       </c>
       <c r="ZX17" s="3" t="n">
-        <v>97.9</v>
+        <v>97.6</v>
       </c>
       <c r="ZY17" s="3" t="n">
-        <v>103.9</v>
+        <v>103.3</v>
       </c>
       <c r="ZZ17" s="3" t="n">
-        <v>98.8</v>
+        <v>99.0</v>
       </c>
       <c r="AAA17" s="3" t="n">
-        <v>94.7</v>
+        <v>95.4</v>
       </c>
       <c r="AAB17" s="3" t="n">
-        <v>102.7</v>
+        <v>104.3</v>
       </c>
       <c r="AAC17" s="3" t="n">
         <v>100.5</v>
       </c>
       <c r="AAD17" s="3" t="n">
-        <v>99.1</v>
+        <v>98.8</v>
       </c>
       <c r="AAE17" s="3" t="n">
-        <v>99.9</v>
+        <v>99.6</v>
       </c>
       <c r="AAF17" s="3" t="n">
         <v>98.4</v>
       </c>
       <c r="AAG17" s="3" t="n">
-        <v>101.3</v>
+        <v>100.9</v>
       </c>
       <c r="AAH17" s="3" t="n">
-        <v>100.8</v>
+        <v>100.4</v>
       </c>
       <c r="AAI17" s="3" t="n">
-        <v>101.0</v>
+        <v>100.7</v>
       </c>
       <c r="AAJ17" s="3" t="n">
-        <v>101.4</v>
+        <v>100.7</v>
       </c>
       <c r="AAK17" s="3" t="n">
         <v>99.3</v>
@@ -55975,113 +56128,122 @@
         <v>100.9</v>
       </c>
       <c r="AAM17" s="3" t="n">
-        <v>100.8</v>
+        <v>101.8</v>
       </c>
       <c r="AAN17" s="3" t="n">
-        <v>98.5</v>
+        <v>101.1</v>
       </c>
       <c r="AAO17" s="3" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="AAP17" s="3" t="n">
-        <v>101.4</v>
+        <v>100.3</v>
       </c>
       <c r="AAQ17" s="3" t="n">
-        <v>105.2</v>
+        <v>104.3</v>
       </c>
       <c r="AAR17" s="3" t="n">
-        <v>101.8</v>
+        <v>101.1</v>
       </c>
       <c r="AAS17" s="3" t="n">
         <v>101.4</v>
       </c>
       <c r="AAT17" s="3" t="n">
-        <v>104.6</v>
+        <v>104.9</v>
       </c>
       <c r="AAU17" s="3" t="n">
-        <v>100.4</v>
+        <v>99.9</v>
       </c>
       <c r="AAV17" s="3" t="n">
-        <v>98.7</v>
+        <v>97.9</v>
       </c>
       <c r="AAW17" s="3" t="n">
-        <v>100.8</v>
+        <v>101.0</v>
       </c>
       <c r="AAX17" s="3" t="n">
-        <v>100.6</v>
+        <v>100.2</v>
       </c>
       <c r="AAY17" s="3" t="n">
-        <v>99.0</v>
+        <v>100.3</v>
       </c>
       <c r="AAZ17" s="3" t="n">
-        <v>77.3</v>
+        <v>80.9</v>
       </c>
       <c r="ABA17" s="3" t="n">
-        <v>65.8</v>
+        <v>66.0</v>
       </c>
       <c r="ABB17" s="3" t="n">
-        <v>87.2</v>
+        <v>85.3</v>
       </c>
       <c r="ABC17" s="3" t="n">
-        <v>93.5</v>
+        <v>93.0</v>
       </c>
       <c r="ABD17" s="3" t="n">
-        <v>101.9</v>
+        <v>99.9</v>
       </c>
       <c r="ABE17" s="3" t="n">
-        <v>96.1</v>
+        <v>96.8</v>
       </c>
       <c r="ABF17" s="3" t="n">
-        <v>94.2</v>
+        <v>95.1</v>
       </c>
       <c r="ABG17" s="3" t="n">
-        <v>94.5</v>
+        <v>93.9</v>
       </c>
       <c r="ABH17" s="3" t="n">
-        <v>96.2</v>
+        <v>95.3</v>
       </c>
       <c r="ABI17" s="3" t="n">
-        <v>93.1</v>
+        <v>93.7</v>
       </c>
       <c r="ABJ17" s="3" t="n">
-        <v>86.9</v>
+        <v>86.3</v>
       </c>
       <c r="ABK17" s="3" t="n">
-        <v>92.9</v>
+        <v>95.1</v>
       </c>
       <c r="ABL17" s="3" t="n">
-        <v>104.1</v>
+        <v>108.9</v>
       </c>
       <c r="ABM17" s="3" t="n">
-        <v>107.9</v>
+        <v>108.8</v>
       </c>
       <c r="ABN17" s="3" t="n">
-        <v>114.0</v>
+        <v>110.3</v>
       </c>
       <c r="ABO17" s="3" t="n">
-        <v>110.9</v>
+        <v>110.3</v>
       </c>
       <c r="ABP17" s="3" t="n">
-        <v>115.0</v>
+        <v>111.5</v>
       </c>
       <c r="ABQ17" s="3" t="n">
-        <v>104.7</v>
+        <v>107.0</v>
       </c>
       <c r="ABR17" s="3" t="n">
-        <v>110.5</v>
+        <v>111.8</v>
       </c>
       <c r="ABS17" s="3" t="n">
-        <v>115.6</v>
+        <v>114.5</v>
       </c>
       <c r="ABT17" s="3" t="n">
-        <v>115.4</v>
-      </c>
-      <c r="ABU17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABV17" s="1" t="inlineStr">
+        <v>114.5</v>
+      </c>
+      <c r="ABU17" s="3" t="n">
+        <v>116.1</v>
+      </c>
+      <c r="ABV17" s="3" t="n">
+        <v>114.2</v>
+      </c>
+      <c r="ABW17" s="3" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="ABX17" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABY17" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -58579,34 +58741,34 @@
         <v>88.5</v>
       </c>
       <c r="UA18" s="3" t="n">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="UB18" s="3" t="n">
-        <v>88.5</v>
+        <v>89.1</v>
       </c>
       <c r="UC18" s="3" t="n">
-        <v>88.1</v>
+        <v>88.3</v>
       </c>
       <c r="UD18" s="3" t="n">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="UE18" s="3" t="n">
         <v>87.7</v>
       </c>
       <c r="UF18" s="3" t="n">
-        <v>87.2</v>
+        <v>87.4</v>
       </c>
       <c r="UG18" s="3" t="n">
         <v>87.6</v>
       </c>
       <c r="UH18" s="3" t="n">
-        <v>88.0</v>
+        <v>87.9</v>
       </c>
       <c r="UI18" s="3" t="n">
-        <v>88.9</v>
+        <v>88.7</v>
       </c>
       <c r="UJ18" s="3" t="n">
-        <v>88.7</v>
+        <v>87.8</v>
       </c>
       <c r="UK18" s="3" t="n">
         <v>88.4</v>
@@ -58615,235 +58777,235 @@
         <v>89.7</v>
       </c>
       <c r="UM18" s="3" t="n">
-        <v>90.1</v>
+        <v>91.3</v>
       </c>
       <c r="UN18" s="3" t="n">
-        <v>89.4</v>
+        <v>88.8</v>
       </c>
       <c r="UO18" s="3" t="n">
-        <v>92.3</v>
+        <v>92.5</v>
       </c>
       <c r="UP18" s="3" t="n">
         <v>91.6</v>
       </c>
       <c r="UQ18" s="3" t="n">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="UR18" s="3" t="n">
-        <v>92.4</v>
+        <v>92.6</v>
       </c>
       <c r="US18" s="3" t="n">
         <v>90.7</v>
       </c>
       <c r="UT18" s="3" t="n">
-        <v>89.4</v>
+        <v>89.3</v>
       </c>
       <c r="UU18" s="3" t="n">
-        <v>83.8</v>
+        <v>87.4</v>
       </c>
       <c r="UV18" s="3" t="n">
-        <v>98.3</v>
+        <v>92.8</v>
       </c>
       <c r="UW18" s="3" t="n">
         <v>91.1</v>
       </c>
       <c r="UX18" s="3" t="n">
-        <v>90.6</v>
+        <v>90.4</v>
       </c>
       <c r="UY18" s="3" t="n">
-        <v>89.9</v>
+        <v>90.0</v>
       </c>
       <c r="UZ18" s="3" t="n">
-        <v>92.9</v>
+        <v>93.8</v>
       </c>
       <c r="VA18" s="3" t="n">
-        <v>91.1</v>
+        <v>91.3</v>
       </c>
       <c r="VB18" s="3" t="n">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="VC18" s="3" t="n">
-        <v>91.5</v>
+        <v>91.7</v>
       </c>
       <c r="VD18" s="3" t="n">
+        <v>90.4</v>
+      </c>
+      <c r="VE18" s="3" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="VF18" s="3" t="n">
         <v>90.3</v>
       </c>
-      <c r="VE18" s="3" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="VF18" s="3" t="n">
-        <v>90.4</v>
-      </c>
       <c r="VG18" s="3" t="n">
-        <v>90.7</v>
+        <v>90.9</v>
       </c>
       <c r="VH18" s="3" t="n">
-        <v>89.4</v>
+        <v>87.6</v>
       </c>
       <c r="VI18" s="3" t="n">
         <v>89.9</v>
       </c>
       <c r="VJ18" s="3" t="n">
-        <v>90.3</v>
+        <v>90.1</v>
       </c>
       <c r="VK18" s="3" t="n">
-        <v>90.8</v>
+        <v>91.1</v>
       </c>
       <c r="VL18" s="3" t="n">
-        <v>93.4</v>
+        <v>94.2</v>
       </c>
       <c r="VM18" s="3" t="n">
-        <v>94.6</v>
+        <v>94.8</v>
       </c>
       <c r="VN18" s="3" t="n">
-        <v>97.0</v>
+        <v>97.2</v>
       </c>
       <c r="VO18" s="3" t="n">
-        <v>93.4</v>
+        <v>93.6</v>
       </c>
       <c r="VP18" s="3" t="n">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="VQ18" s="3" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="VR18" s="3" t="n">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="VS18" s="3" t="n">
-        <v>96.6</v>
+        <v>96.1</v>
       </c>
       <c r="VT18" s="3" t="n">
-        <v>97.2</v>
+        <v>95.8</v>
       </c>
       <c r="VU18" s="3" t="n">
         <v>93.7</v>
       </c>
       <c r="VV18" s="3" t="n">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="VW18" s="3" t="n">
-        <v>90.8</v>
+        <v>92.6</v>
       </c>
       <c r="VX18" s="3" t="n">
-        <v>91.2</v>
+        <v>90.7</v>
       </c>
       <c r="VY18" s="3" t="n">
-        <v>90.2</v>
+        <v>90.4</v>
       </c>
       <c r="VZ18" s="3" t="n">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="WA18" s="3" t="n">
         <v>90.2</v>
       </c>
       <c r="WB18" s="3" t="n">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="WC18" s="3" t="n">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="WD18" s="3" t="n">
-        <v>93.9</v>
+        <v>93.7</v>
       </c>
       <c r="WE18" s="3" t="n">
-        <v>91.2</v>
+        <v>94.0</v>
       </c>
       <c r="WF18" s="3" t="n">
-        <v>100.9</v>
+        <v>95.8</v>
       </c>
       <c r="WG18" s="3" t="n">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="WH18" s="3" t="n">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="WI18" s="3" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="WJ18" s="3" t="n">
-        <v>93.4</v>
+        <v>94.7</v>
       </c>
       <c r="WK18" s="3" t="n">
-        <v>93.4</v>
+        <v>93.6</v>
       </c>
       <c r="WL18" s="3" t="n">
-        <v>93.1</v>
+        <v>93.3</v>
       </c>
       <c r="WM18" s="3" t="n">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="WN18" s="3" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="WO18" s="3" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="WP18" s="3" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="WQ18" s="3" t="n">
+        <v>92.9</v>
+      </c>
+      <c r="WR18" s="3" t="n">
+        <v>90.6</v>
+      </c>
+      <c r="WS18" s="3" t="n">
+        <v>94.4</v>
+      </c>
+      <c r="WT18" s="3" t="n">
         <v>95.1</v>
       </c>
-      <c r="WO18" s="3" t="n">
-        <v>95.1</v>
-      </c>
-      <c r="WP18" s="3" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="WQ18" s="3" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="WR18" s="3" t="n">
-        <v>92.1</v>
-      </c>
-      <c r="WS18" s="3" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="WT18" s="3" t="n">
-        <v>95.2</v>
-      </c>
       <c r="WU18" s="3" t="n">
-        <v>94.7</v>
+        <v>95.5</v>
       </c>
       <c r="WV18" s="3" t="n">
-        <v>89.2</v>
+        <v>89.6</v>
       </c>
       <c r="WW18" s="3" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="WX18" s="3" t="n">
-        <v>96.1</v>
+        <v>96.3</v>
       </c>
       <c r="WY18" s="3" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="WZ18" s="3" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="XA18" s="3" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="XB18" s="3" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="XC18" s="3" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="XD18" s="3" t="n">
         <v>96.7</v>
       </c>
-      <c r="WZ18" s="3" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="XA18" s="3" t="n">
-        <v>95.6</v>
-      </c>
-      <c r="XB18" s="3" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="XC18" s="3" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="XD18" s="3" t="n">
-        <v>98.0</v>
-      </c>
       <c r="XE18" s="3" t="n">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="XF18" s="3" t="n">
         <v>96.7</v>
       </c>
       <c r="XG18" s="3" t="n">
-        <v>90.5</v>
+        <v>92.3</v>
       </c>
       <c r="XH18" s="3" t="n">
-        <v>96.7</v>
+        <v>95.8</v>
       </c>
       <c r="XI18" s="3" t="n">
-        <v>95.6</v>
+        <v>95.4</v>
       </c>
       <c r="XJ18" s="3" t="n">
-        <v>94.2</v>
+        <v>94.4</v>
       </c>
       <c r="XK18" s="3" t="n">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="XL18" s="3" t="n">
         <v>96.7</v>
@@ -58852,49 +59014,49 @@
         <v>97.5</v>
       </c>
       <c r="XN18" s="3" t="n">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="XO18" s="3" t="n">
-        <v>99.0</v>
+        <v>101.0</v>
       </c>
       <c r="XP18" s="3" t="n">
-        <v>95.8</v>
+        <v>92.8</v>
       </c>
       <c r="XQ18" s="3" t="n">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="XR18" s="3" t="n">
         <v>97.2</v>
       </c>
       <c r="XS18" s="3" t="n">
-        <v>99.4</v>
+        <v>99.1</v>
       </c>
       <c r="XT18" s="3" t="n">
-        <v>100.0</v>
+        <v>100.7</v>
       </c>
       <c r="XU18" s="3" t="n">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="XV18" s="3" t="n">
-        <v>96.6</v>
+        <v>97.0</v>
       </c>
       <c r="XW18" s="3" t="n">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="XX18" s="3" t="n">
         <v>97.5</v>
       </c>
       <c r="XY18" s="3" t="n">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="XZ18" s="3" t="n">
         <v>99.5</v>
       </c>
       <c r="YA18" s="3" t="n">
-        <v>99.1</v>
+        <v>98.6</v>
       </c>
       <c r="YB18" s="3" t="n">
-        <v>99.8</v>
+        <v>99.6</v>
       </c>
       <c r="YC18" s="3" t="n">
         <v>100.5</v>
@@ -58903,293 +59065,302 @@
         <v>98.2</v>
       </c>
       <c r="YE18" s="3" t="n">
-        <v>107.7</v>
+        <v>108.2</v>
       </c>
       <c r="YF18" s="3" t="n">
-        <v>97.3</v>
+        <v>96.6</v>
       </c>
       <c r="YG18" s="3" t="n">
-        <v>102.8</v>
+        <v>102.5</v>
       </c>
       <c r="YH18" s="3" t="n">
-        <v>100.7</v>
+        <v>101.2</v>
       </c>
       <c r="YI18" s="3" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="YJ18" s="3" t="n">
-        <v>100.0</v>
+        <v>100.2</v>
       </c>
       <c r="YK18" s="3" t="n">
-        <v>100.0</v>
+        <v>100.2</v>
       </c>
       <c r="YL18" s="3" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="YM18" s="3" t="n">
-        <v>94.5</v>
+        <v>93.7</v>
       </c>
       <c r="YN18" s="3" t="n">
-        <v>101.3</v>
+        <v>101.6</v>
       </c>
       <c r="YO18" s="3" t="n">
         <v>98.4</v>
       </c>
       <c r="YP18" s="3" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="YQ18" s="3" t="n">
-        <v>100.0</v>
+        <v>98.7</v>
       </c>
       <c r="YR18" s="3" t="n">
-        <v>97.7</v>
+        <v>98.0</v>
       </c>
       <c r="YS18" s="3" t="n">
         <v>98.8</v>
       </c>
       <c r="YT18" s="3" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="YU18" s="3" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="YV18" s="3" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="YW18" s="3" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="YX18" s="3" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="YY18" s="3" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="YZ18" s="3" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="ZA18" s="3" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="ZB18" s="3" t="n">
+        <v>98.6</v>
+      </c>
+      <c r="ZC18" s="3" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="ZD18" s="3" t="n">
+        <v>96.6</v>
+      </c>
+      <c r="ZE18" s="3" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="ZF18" s="3" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="ZG18" s="3" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="ZH18" s="3" t="n">
+        <v>98.4</v>
+      </c>
+      <c r="ZI18" s="3" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="ZJ18" s="3" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="ZK18" s="3" t="n">
+        <v>96.1</v>
+      </c>
+      <c r="ZL18" s="3" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="ZM18" s="3" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="ZN18" s="3" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="ZO18" s="3" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="ZP18" s="3" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="ZQ18" s="3" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="ZR18" s="3" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="ZS18" s="3" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="ZT18" s="3" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="ZU18" s="3" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="ZV18" s="3" t="n">
+        <v>99.4</v>
+      </c>
+      <c r="ZW18" s="3" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="ZX18" s="3" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="ZY18" s="3" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="ZZ18" s="3" t="n">
         <v>99.9</v>
       </c>
-      <c r="YU18" s="3" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="YV18" s="3" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="YW18" s="3" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="YX18" s="3" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="YY18" s="3" t="n">
+      <c r="AAA18" s="3" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="AAB18" s="3" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="AAC18" s="3" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="AAD18" s="3" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="AAE18" s="3" t="n">
         <v>100.8</v>
       </c>
-      <c r="YZ18" s="3" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="ZA18" s="3" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="ZB18" s="3" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="ZC18" s="3" t="n">
-        <v>106.1</v>
-      </c>
-      <c r="ZD18" s="3" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="ZE18" s="3" t="n">
-        <v>97.9</v>
-      </c>
-      <c r="ZF18" s="3" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="ZG18" s="3" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="ZH18" s="3" t="n">
-        <v>97.9</v>
-      </c>
-      <c r="ZI18" s="3" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="ZJ18" s="3" t="n">
+      <c r="AAF18" s="3" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="AAG18" s="3" t="n">
         <v>101.4</v>
       </c>
-      <c r="ZK18" s="3" t="n">
+      <c r="AAH18" s="3" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AAI18" s="3" t="n">
         <v>97.7</v>
       </c>
-      <c r="ZL18" s="3" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="ZM18" s="3" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="ZN18" s="3" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="ZO18" s="3" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="ZP18" s="3" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="ZQ18" s="3" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="ZR18" s="3" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="ZS18" s="3" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="ZT18" s="3" t="n">
-        <v>99.6</v>
-      </c>
-      <c r="ZU18" s="3" t="n">
-        <v>99.6</v>
-      </c>
-      <c r="ZV18" s="3" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="ZW18" s="3" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="ZX18" s="3" t="n">
-        <v>102.9</v>
-      </c>
-      <c r="ZY18" s="3" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="ZZ18" s="3" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="AAA18" s="3" t="n">
-        <v>104.8</v>
-      </c>
-      <c r="AAB18" s="3" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="AAC18" s="3" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="AAD18" s="3" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="AAE18" s="3" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="AAF18" s="3" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="AAG18" s="3" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="AAH18" s="3" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="AAI18" s="3" t="n">
-        <v>99.8</v>
-      </c>
       <c r="AAJ18" s="3" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="AAK18" s="3" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="AAL18" s="3" t="n">
         <v>98.6</v>
       </c>
-      <c r="AAK18" s="3" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="AAL18" s="3" t="n">
-        <v>99.7</v>
-      </c>
       <c r="AAM18" s="3" t="n">
-        <v>99.2</v>
+        <v>96.5</v>
       </c>
       <c r="AAN18" s="3" t="n">
-        <v>94.5</v>
+        <v>95.0</v>
       </c>
       <c r="AAO18" s="3" t="n">
-        <v>94.8</v>
+        <v>97.1</v>
       </c>
       <c r="AAP18" s="3" t="n">
-        <v>94.0</v>
+        <v>96.0</v>
       </c>
       <c r="AAQ18" s="3" t="n">
-        <v>93.4</v>
+        <v>95.5</v>
       </c>
       <c r="AAR18" s="3" t="n">
-        <v>94.0</v>
+        <v>94.9</v>
       </c>
       <c r="AAS18" s="3" t="n">
-        <v>94.9</v>
+        <v>94.6</v>
       </c>
       <c r="AAT18" s="3" t="n">
         <v>97.9</v>
       </c>
       <c r="AAU18" s="3" t="n">
-        <v>94.9</v>
+        <v>92.4</v>
       </c>
       <c r="AAV18" s="3" t="n">
-        <v>95.8</v>
+        <v>95.3</v>
       </c>
       <c r="AAW18" s="3" t="n">
+        <v>95.6</v>
+      </c>
+      <c r="AAX18" s="3" t="n">
+        <v>93.6</v>
+      </c>
+      <c r="AAY18" s="3" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="AAZ18" s="3" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="ABA18" s="3" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="ABB18" s="3" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="ABC18" s="3" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="ABD18" s="3" t="n">
         <v>96.4</v>
       </c>
-      <c r="AAX18" s="3" t="n">
+      <c r="ABE18" s="3" t="n">
+        <v>91.6</v>
+      </c>
+      <c r="ABF18" s="3" t="n">
+        <v>93.4</v>
+      </c>
+      <c r="ABG18" s="3" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="ABH18" s="3" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="ABI18" s="3" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="ABJ18" s="3" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="ABK18" s="3" t="n">
         <v>95.0</v>
       </c>
-      <c r="AAY18" s="3" t="n">
-        <v>94.6</v>
-      </c>
-      <c r="AAZ18" s="3" t="n">
-        <v>104.4</v>
-      </c>
-      <c r="ABA18" s="3" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="ABB18" s="3" t="n">
-        <v>98.4</v>
-      </c>
-      <c r="ABC18" s="3" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="ABD18" s="3" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="ABE18" s="3" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="ABF18" s="3" t="n">
-        <v>93.9</v>
-      </c>
-      <c r="ABG18" s="3" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="ABH18" s="3" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="ABI18" s="3" t="n">
-        <v>93.6</v>
-      </c>
-      <c r="ABJ18" s="3" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="ABK18" s="3" t="n">
-        <v>98.3</v>
-      </c>
       <c r="ABL18" s="3" t="n">
-        <v>90.7</v>
+        <v>92.6</v>
       </c>
       <c r="ABM18" s="3" t="n">
-        <v>87.0</v>
+        <v>90.9</v>
       </c>
       <c r="ABN18" s="3" t="n">
-        <v>89.5</v>
+        <v>92.6</v>
       </c>
       <c r="ABO18" s="3" t="n">
-        <v>86.3</v>
+        <v>89.6</v>
       </c>
       <c r="ABP18" s="3" t="n">
-        <v>87.9</v>
+        <v>89.1</v>
       </c>
       <c r="ABQ18" s="3" t="n">
-        <v>91.9</v>
+        <v>90.9</v>
       </c>
       <c r="ABR18" s="3" t="n">
-        <v>88.4</v>
+        <v>88.9</v>
       </c>
       <c r="ABS18" s="3" t="n">
-        <v>95.6</v>
+        <v>93.3</v>
       </c>
       <c r="ABT18" s="3" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="ABU18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABV18" s="1" t="inlineStr">
+        <v>89.4</v>
+      </c>
+      <c r="ABU18" s="3" t="n">
+        <v>87.4</v>
+      </c>
+      <c r="ABV18" s="3" t="n">
+        <v>88.1</v>
+      </c>
+      <c r="ABW18" s="3" t="n">
+        <v>96.1</v>
+      </c>
+      <c r="ABX18" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABY18" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -61585,106 +61756,106 @@
         <v>27.0</v>
       </c>
       <c r="SS19" s="3" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="ST19" s="3" t="n">
-        <v>30.0</v>
+        <v>29.9</v>
       </c>
       <c r="SU19" s="3" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="SV19" s="3" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="SW19" s="3" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="SX19" s="3" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="SY19" s="3" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="SZ19" s="3" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="TA19" s="3" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="TB19" s="3" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="TC19" s="3" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="TD19" s="3" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="TE19" s="3" t="n">
         <v>37.5</v>
       </c>
-      <c r="TC19" s="3" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="TD19" s="3" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="TE19" s="3" t="n">
+      <c r="TF19" s="3" t="n">
         <v>37.6</v>
       </c>
-      <c r="TF19" s="3" t="n">
-        <v>37.7</v>
-      </c>
       <c r="TG19" s="3" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="TH19" s="3" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="TI19" s="3" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="TJ19" s="3" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="TK19" s="3" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="TL19" s="3" t="n">
         <v>39.6</v>
       </c>
-      <c r="TL19" s="3" t="n">
-        <v>39.7</v>
-      </c>
       <c r="TM19" s="3" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="TN19" s="3" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="TO19" s="3" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="TP19" s="3" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="TQ19" s="3" t="n">
         <v>40.2</v>
       </c>
-      <c r="TN19" s="3" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="TO19" s="3" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="TP19" s="3" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="TQ19" s="3" t="n">
-        <v>40.3</v>
-      </c>
       <c r="TR19" s="3" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="TS19" s="3" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="TT19" s="3" t="n">
         <v>40.6</v>
       </c>
-      <c r="TT19" s="3" t="n">
+      <c r="TU19" s="3" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="TV19" s="3" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="TW19" s="3" t="n">
         <v>40.7</v>
       </c>
-      <c r="TU19" s="3" t="n">
+      <c r="TX19" s="3" t="n">
         <v>40.7</v>
       </c>
-      <c r="TV19" s="3" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="TW19" s="3" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="TX19" s="3" t="n">
-        <v>40.8</v>
-      </c>
       <c r="TY19" s="3" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="TZ19" s="3" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="UA19" s="3" t="n">
         <v>39.0</v>
@@ -61714,7 +61885,7 @@
         <v>41.6</v>
       </c>
       <c r="UJ19" s="3" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="UK19" s="3" t="n">
         <v>42.1</v>
@@ -61723,7 +61894,7 @@
         <v>42.3</v>
       </c>
       <c r="UM19" s="3" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="UN19" s="3" t="n">
         <v>42.5</v>
@@ -61750,7 +61921,7 @@
         <v>43.4</v>
       </c>
       <c r="UV19" s="3" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="UW19" s="3" t="n">
         <v>44.5</v>
@@ -61762,7 +61933,7 @@
         <v>45.6</v>
       </c>
       <c r="UZ19" s="3" t="n">
-        <v>46.4</v>
+        <v>46.5</v>
       </c>
       <c r="VA19" s="3" t="n">
         <v>48.4</v>
@@ -61798,7 +61969,7 @@
         <v>51.3</v>
       </c>
       <c r="VL19" s="3" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="VM19" s="3" t="n">
         <v>52.2</v>
@@ -61831,7 +62002,7 @@
         <v>53.7</v>
       </c>
       <c r="VW19" s="3" t="n">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="VX19" s="3" t="n">
         <v>54.8</v>
@@ -61867,7 +62038,7 @@
         <v>59.5</v>
       </c>
       <c r="WI19" s="3" t="n">
-        <v>59.8</v>
+        <v>59.7</v>
       </c>
       <c r="WJ19" s="3" t="n">
         <v>60.6</v>
@@ -61900,7 +62071,7 @@
         <v>66.9</v>
       </c>
       <c r="WT19" s="3" t="n">
-        <v>68.6</v>
+        <v>68.5</v>
       </c>
       <c r="WU19" s="3" t="n">
         <v>66.9</v>
@@ -61942,7 +62113,7 @@
         <v>77.2</v>
       </c>
       <c r="XH19" s="3" t="n">
-        <v>77.7</v>
+        <v>77.6</v>
       </c>
       <c r="XI19" s="3" t="n">
         <v>79.0</v>
@@ -61957,7 +62128,7 @@
         <v>80.8</v>
       </c>
       <c r="XM19" s="3" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="XN19" s="3" t="n">
         <v>83.3</v>
@@ -61972,10 +62143,10 @@
         <v>84.3</v>
       </c>
       <c r="XR19" s="3" t="n">
-        <v>83.9</v>
+        <v>83.8</v>
       </c>
       <c r="XS19" s="3" t="n">
-        <v>83.4</v>
+        <v>83.3</v>
       </c>
       <c r="XT19" s="3" t="n">
         <v>84.4</v>
@@ -61984,7 +62155,7 @@
         <v>86.3</v>
       </c>
       <c r="XV19" s="3" t="n">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="XW19" s="3" t="n">
         <v>86.7</v>
@@ -62005,25 +62176,25 @@
         <v>89.7</v>
       </c>
       <c r="YC19" s="3" t="n">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="YD19" s="3" t="n">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="YE19" s="3" t="n">
         <v>94.1</v>
       </c>
       <c r="YF19" s="3" t="n">
-        <v>90.1</v>
+        <v>90.0</v>
       </c>
       <c r="YG19" s="3" t="n">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="YH19" s="3" t="n">
         <v>92.0</v>
       </c>
       <c r="YI19" s="3" t="n">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="YJ19" s="3" t="n">
         <v>93.3</v>
@@ -62032,7 +62203,7 @@
         <v>93.6</v>
       </c>
       <c r="YL19" s="3" t="n">
-        <v>92.4</v>
+        <v>92.5</v>
       </c>
       <c r="YM19" s="3" t="n">
         <v>96.6</v>
@@ -62047,10 +62218,10 @@
         <v>109.1</v>
       </c>
       <c r="YQ19" s="3" t="n">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="YR19" s="3" t="n">
-        <v>91.0</v>
+        <v>91.1</v>
       </c>
       <c r="YS19" s="3" t="n">
         <v>96.2</v>
@@ -62059,245 +62230,254 @@
         <v>98.3</v>
       </c>
       <c r="YU19" s="3" t="n">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="YV19" s="3" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="YW19" s="3" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="YX19" s="3" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="YY19" s="3" t="n">
         <v>104.3</v>
       </c>
       <c r="YZ19" s="3" t="n">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
       <c r="ZA19" s="3" t="n">
         <v>105.3</v>
       </c>
       <c r="ZB19" s="3" t="n">
-        <v>107.0</v>
+        <v>106.9</v>
       </c>
       <c r="ZC19" s="3" t="n">
-        <v>109.1</v>
+        <v>109.0</v>
       </c>
       <c r="ZD19" s="3" t="n">
-        <v>111.2</v>
+        <v>111.4</v>
       </c>
       <c r="ZE19" s="3" t="n">
-        <v>112.8</v>
+        <v>112.7</v>
       </c>
       <c r="ZF19" s="3" t="n">
         <v>114.7</v>
       </c>
       <c r="ZG19" s="3" t="n">
-        <v>115.4</v>
+        <v>115.5</v>
       </c>
       <c r="ZH19" s="3" t="n">
-        <v>116.4</v>
+        <v>116.5</v>
       </c>
       <c r="ZI19" s="3" t="n">
         <v>118.0</v>
       </c>
       <c r="ZJ19" s="3" t="n">
-        <v>120.7</v>
+        <v>120.8</v>
       </c>
       <c r="ZK19" s="3" t="n">
-        <v>119.7</v>
+        <v>119.6</v>
       </c>
       <c r="ZL19" s="3" t="n">
-        <v>121.8</v>
+        <v>121.7</v>
       </c>
       <c r="ZM19" s="3" t="n">
-        <v>121.2</v>
+        <v>121.1</v>
       </c>
       <c r="ZN19" s="3" t="n">
-        <v>123.0</v>
+        <v>122.8</v>
       </c>
       <c r="ZO19" s="3" t="n">
-        <v>124.0</v>
+        <v>123.7</v>
       </c>
       <c r="ZP19" s="3" t="n">
-        <v>128.0</v>
+        <v>128.1</v>
       </c>
       <c r="ZQ19" s="3" t="n">
         <v>126.5</v>
       </c>
       <c r="ZR19" s="3" t="n">
-        <v>129.8</v>
+        <v>130.0</v>
       </c>
       <c r="ZS19" s="3" t="n">
-        <v>129.3</v>
+        <v>129.5</v>
       </c>
       <c r="ZT19" s="3" t="n">
-        <v>129.8</v>
+        <v>130.1</v>
       </c>
       <c r="ZU19" s="3" t="n">
-        <v>131.7</v>
+        <v>131.9</v>
       </c>
       <c r="ZV19" s="3" t="n">
-        <v>131.7</v>
+        <v>131.8</v>
       </c>
       <c r="ZW19" s="3" t="n">
-        <v>138.8</v>
+        <v>138.7</v>
       </c>
       <c r="ZX19" s="3" t="n">
-        <v>136.7</v>
+        <v>136.5</v>
       </c>
       <c r="ZY19" s="3" t="n">
-        <v>138.0</v>
+        <v>137.8</v>
       </c>
       <c r="ZZ19" s="3" t="n">
-        <v>139.8</v>
+        <v>139.4</v>
       </c>
       <c r="AAA19" s="3" t="n">
-        <v>141.0</v>
+        <v>140.4</v>
       </c>
       <c r="AAB19" s="3" t="n">
-        <v>139.6</v>
+        <v>139.9</v>
       </c>
       <c r="AAC19" s="3" t="n">
         <v>145.1</v>
       </c>
       <c r="AAD19" s="3" t="n">
-        <v>143.1</v>
+        <v>143.4</v>
       </c>
       <c r="AAE19" s="3" t="n">
-        <v>141.0</v>
+        <v>141.4</v>
       </c>
       <c r="AAF19" s="3" t="n">
-        <v>145.2</v>
+        <v>145.8</v>
       </c>
       <c r="AAG19" s="3" t="n">
-        <v>145.3</v>
+        <v>145.5</v>
       </c>
       <c r="AAH19" s="3" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="AAI19" s="3" t="n">
         <v>143.0</v>
       </c>
-      <c r="AAI19" s="3" t="n">
+      <c r="AAJ19" s="3" t="n">
         <v>143.2</v>
       </c>
-      <c r="AAJ19" s="3" t="n">
-        <v>143.6</v>
-      </c>
       <c r="AAK19" s="3" t="n">
-        <v>145.8</v>
+        <v>145.5</v>
       </c>
       <c r="AAL19" s="3" t="n">
-        <v>145.4</v>
+        <v>144.8</v>
       </c>
       <c r="AAM19" s="3" t="n">
-        <v>150.8</v>
+        <v>149.8</v>
       </c>
       <c r="AAN19" s="3" t="n">
-        <v>146.5</v>
+        <v>146.7</v>
       </c>
       <c r="AAO19" s="3" t="n">
         <v>149.6</v>
       </c>
       <c r="AAP19" s="3" t="n">
-        <v>147.6</v>
+        <v>148.1</v>
       </c>
       <c r="AAQ19" s="3" t="n">
-        <v>149.0</v>
+        <v>149.7</v>
       </c>
       <c r="AAR19" s="3" t="n">
-        <v>148.7</v>
+        <v>149.8</v>
       </c>
       <c r="AAS19" s="3" t="n">
-        <v>148.7</v>
+        <v>148.9</v>
       </c>
       <c r="AAT19" s="3" t="n">
-        <v>151.8</v>
+        <v>152.1</v>
       </c>
       <c r="AAU19" s="3" t="n">
-        <v>151.7</v>
+        <v>151.2</v>
       </c>
       <c r="AAV19" s="3" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="AAW19" s="3" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="AAX19" s="3" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="AAY19" s="3" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="AAZ19" s="3" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="ABA19" s="3" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="ABB19" s="3" t="n">
+        <v>144.7</v>
+      </c>
+      <c r="ABC19" s="3" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="ABD19" s="3" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="ABE19" s="3" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="ABF19" s="3" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="ABG19" s="3" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="ABH19" s="3" t="n">
         <v>153.1</v>
       </c>
-      <c r="AAW19" s="3" t="n">
-        <v>154.3</v>
-      </c>
-      <c r="AAX19" s="3" t="n">
-        <v>155.3</v>
-      </c>
-      <c r="AAY19" s="3" t="n">
-        <v>156.2</v>
-      </c>
-      <c r="AAZ19" s="3" t="n">
-        <v>161.0</v>
-      </c>
-      <c r="ABA19" s="3" t="n">
-        <v>144.7</v>
-      </c>
-      <c r="ABB19" s="3" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="ABC19" s="3" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="ABD19" s="3" t="n">
-        <v>150.9</v>
-      </c>
-      <c r="ABE19" s="3" t="n">
-        <v>152.1</v>
-      </c>
-      <c r="ABF19" s="3" t="n">
-        <v>151.4</v>
-      </c>
-      <c r="ABG19" s="3" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="ABH19" s="3" t="n">
-        <v>152.2</v>
-      </c>
       <c r="ABI19" s="3" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="ABJ19" s="3" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="ABK19" s="3" t="n">
+        <v>158.5</v>
+      </c>
+      <c r="ABL19" s="3" t="n">
+        <v>157.6</v>
+      </c>
+      <c r="ABM19" s="3" t="n">
+        <v>157.2</v>
+      </c>
+      <c r="ABN19" s="3" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="ABO19" s="3" t="n">
         <v>154.4</v>
       </c>
-      <c r="ABJ19" s="3" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="ABK19" s="3" t="n">
-        <v>158.1</v>
-      </c>
-      <c r="ABL19" s="3" t="n">
+      <c r="ABP19" s="3" t="n">
         <v>155.7</v>
       </c>
-      <c r="ABM19" s="3" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="ABN19" s="3" t="n">
-        <v>156.7</v>
-      </c>
-      <c r="ABO19" s="3" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="ABP19" s="3" t="n">
-        <v>152.2</v>
-      </c>
       <c r="ABQ19" s="3" t="n">
-        <v>157.4</v>
+        <v>159.4</v>
       </c>
       <c r="ABR19" s="3" t="n">
-        <v>153.5</v>
+        <v>156.3</v>
       </c>
       <c r="ABS19" s="3" t="n">
-        <v>160.7</v>
+        <v>162.3</v>
       </c>
       <c r="ABT19" s="3" t="n">
-        <v>161.4</v>
-      </c>
-      <c r="ABU19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABV19" s="1" t="inlineStr">
+        <v>162.8</v>
+      </c>
+      <c r="ABU19" s="3" t="n">
+        <v>161.3</v>
+      </c>
+      <c r="ABV19" s="3" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="ABW19" s="3" t="n">
+        <v>165.9</v>
+      </c>
+      <c r="ABX19" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABY19" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -65038,28 +65218,28 @@
         <v>85.1</v>
       </c>
       <c r="UB20" s="3" t="n">
-        <v>86.6</v>
+        <v>86.7</v>
       </c>
       <c r="UC20" s="3" t="n">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="UD20" s="3" t="n">
         <v>88.2</v>
       </c>
       <c r="UE20" s="3" t="n">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="UF20" s="3" t="n">
-        <v>86.9</v>
+        <v>86.8</v>
       </c>
       <c r="UG20" s="3" t="n">
-        <v>87.2</v>
+        <v>87.0</v>
       </c>
       <c r="UH20" s="3" t="n">
-        <v>85.5</v>
+        <v>85.3</v>
       </c>
       <c r="UI20" s="3" t="n">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="UJ20" s="3" t="n">
         <v>87.8</v>
@@ -65068,13 +65248,13 @@
         <v>88.0</v>
       </c>
       <c r="UL20" s="3" t="n">
-        <v>88.5</v>
+        <v>88.8</v>
       </c>
       <c r="UM20" s="3" t="n">
-        <v>89.3</v>
+        <v>89.5</v>
       </c>
       <c r="UN20" s="3" t="n">
-        <v>88.9</v>
+        <v>89.1</v>
       </c>
       <c r="UO20" s="3" t="n">
         <v>89.6</v>
@@ -65083,34 +65263,34 @@
         <v>90.2</v>
       </c>
       <c r="UQ20" s="3" t="n">
-        <v>90.6</v>
+        <v>90.5</v>
       </c>
       <c r="UR20" s="3" t="n">
-        <v>91.3</v>
+        <v>91.0</v>
       </c>
       <c r="US20" s="3" t="n">
-        <v>87.4</v>
+        <v>87.0</v>
       </c>
       <c r="UT20" s="3" t="n">
-        <v>90.9</v>
+        <v>90.5</v>
       </c>
       <c r="UU20" s="3" t="n">
-        <v>90.3</v>
+        <v>90.5</v>
       </c>
       <c r="UV20" s="3" t="n">
-        <v>91.0</v>
+        <v>91.2</v>
       </c>
       <c r="UW20" s="3" t="n">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="UX20" s="3" t="n">
-        <v>99.0</v>
+        <v>99.3</v>
       </c>
       <c r="UY20" s="3" t="n">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="UZ20" s="3" t="n">
-        <v>98.0</v>
+        <v>98.2</v>
       </c>
       <c r="VA20" s="3" t="n">
         <v>98.1</v>
@@ -65119,178 +65299,178 @@
         <v>96.9</v>
       </c>
       <c r="VC20" s="3" t="n">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
       <c r="VD20" s="3" t="n">
-        <v>97.8</v>
+        <v>97.3</v>
       </c>
       <c r="VE20" s="3" t="n">
-        <v>97.6</v>
+        <v>97.0</v>
       </c>
       <c r="VF20" s="3" t="n">
-        <v>98.3</v>
+        <v>97.7</v>
       </c>
       <c r="VG20" s="3" t="n">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="VH20" s="3" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="VI20" s="3" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="VJ20" s="3" t="n">
         <v>100.7</v>
       </c>
-      <c r="VI20" s="3" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="VJ20" s="3" t="n">
-        <v>100.3</v>
-      </c>
       <c r="VK20" s="3" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="VL20" s="3" t="n">
-        <v>96.9</v>
+        <v>97.1</v>
       </c>
       <c r="VM20" s="3" t="n">
         <v>100.0</v>
       </c>
       <c r="VN20" s="3" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="VO20" s="3" t="n">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="VP20" s="3" t="n">
-        <v>98.2</v>
+        <v>97.6</v>
       </c>
       <c r="VQ20" s="3" t="n">
-        <v>101.6</v>
+        <v>101.0</v>
       </c>
       <c r="VR20" s="3" t="n">
-        <v>101.8</v>
+        <v>101.0</v>
       </c>
       <c r="VS20" s="3" t="n">
-        <v>96.3</v>
+        <v>97.2</v>
       </c>
       <c r="VT20" s="3" t="n">
-        <v>95.8</v>
+        <v>96.4</v>
       </c>
       <c r="VU20" s="3" t="n">
-        <v>94.4</v>
+        <v>94.7</v>
       </c>
       <c r="VV20" s="3" t="n">
-        <v>90.9</v>
+        <v>91.3</v>
       </c>
       <c r="VW20" s="3" t="n">
-        <v>95.0</v>
+        <v>95.2</v>
       </c>
       <c r="VX20" s="3" t="n">
         <v>100.1</v>
       </c>
       <c r="VY20" s="3" t="n">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="VZ20" s="3" t="n">
-        <v>98.8</v>
+        <v>98.6</v>
       </c>
       <c r="WA20" s="3" t="n">
-        <v>96.1</v>
+        <v>95.8</v>
       </c>
       <c r="WB20" s="3" t="n">
-        <v>96.8</v>
+        <v>96.3</v>
       </c>
       <c r="WC20" s="3" t="n">
-        <v>97.2</v>
+        <v>96.7</v>
       </c>
       <c r="WD20" s="3" t="n">
-        <v>98.0</v>
+        <v>97.4</v>
       </c>
       <c r="WE20" s="3" t="n">
+        <v>96.9</v>
+      </c>
+      <c r="WF20" s="3" t="n">
+        <v>96.6</v>
+      </c>
+      <c r="WG20" s="3" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="WH20" s="3" t="n">
         <v>96.3</v>
-      </c>
-      <c r="WF20" s="3" t="n">
-        <v>96.1</v>
-      </c>
-      <c r="WG20" s="3" t="n">
-        <v>96.6</v>
-      </c>
-      <c r="WH20" s="3" t="n">
-        <v>96.0</v>
       </c>
       <c r="WI20" s="3" t="n">
         <v>98.7</v>
       </c>
       <c r="WJ20" s="3" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="WK20" s="3" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="WL20" s="3" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="WM20" s="3" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="WN20" s="3" t="n">
-        <v>102.1</v>
+        <v>101.7</v>
       </c>
       <c r="WO20" s="3" t="n">
-        <v>102.6</v>
+        <v>102.3</v>
       </c>
       <c r="WP20" s="3" t="n">
-        <v>102.1</v>
+        <v>101.8</v>
       </c>
       <c r="WQ20" s="3" t="n">
-        <v>104.4</v>
+        <v>104.8</v>
       </c>
       <c r="WR20" s="3" t="n">
-        <v>103.4</v>
+        <v>103.7</v>
       </c>
       <c r="WS20" s="3" t="n">
-        <v>102.7</v>
+        <v>103.1</v>
       </c>
       <c r="WT20" s="3" t="n">
-        <v>105.5</v>
+        <v>105.8</v>
       </c>
       <c r="WU20" s="3" t="n">
-        <v>104.1</v>
+        <v>104.0</v>
       </c>
       <c r="WV20" s="3" t="n">
-        <v>104.0</v>
+        <v>103.8</v>
       </c>
       <c r="WW20" s="3" t="n">
         <v>103.9</v>
       </c>
       <c r="WX20" s="3" t="n">
-        <v>105.0</v>
+        <v>104.8</v>
       </c>
       <c r="WY20" s="3" t="n">
-        <v>107.1</v>
+        <v>107.0</v>
       </c>
       <c r="WZ20" s="3" t="n">
-        <v>109.5</v>
+        <v>109.2</v>
       </c>
       <c r="XA20" s="3" t="n">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="XB20" s="3" t="n">
         <v>106.2</v>
       </c>
       <c r="XC20" s="3" t="n">
-        <v>104.9</v>
+        <v>105.0</v>
       </c>
       <c r="XD20" s="3" t="n">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="XE20" s="3" t="n">
-        <v>107.3</v>
+        <v>107.6</v>
       </c>
       <c r="XF20" s="3" t="n">
-        <v>105.5</v>
+        <v>105.7</v>
       </c>
       <c r="XG20" s="3" t="n">
         <v>107.7</v>
       </c>
       <c r="XH20" s="3" t="n">
-        <v>102.0</v>
+        <v>101.7</v>
       </c>
       <c r="XI20" s="3" t="n">
         <v>104.3</v>
@@ -65302,31 +65482,31 @@
         <v>105.3</v>
       </c>
       <c r="XL20" s="3" t="n">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="XM20" s="3" t="n">
         <v>107.4</v>
       </c>
       <c r="XN20" s="3" t="n">
-        <v>107.0</v>
+        <v>107.1</v>
       </c>
       <c r="XO20" s="3" t="n">
-        <v>105.0</v>
+        <v>104.9</v>
       </c>
       <c r="XP20" s="3" t="n">
-        <v>103.9</v>
+        <v>104.0</v>
       </c>
       <c r="XQ20" s="3" t="n">
-        <v>103.9</v>
+        <v>104.0</v>
       </c>
       <c r="XR20" s="3" t="n">
         <v>103.9</v>
       </c>
       <c r="XS20" s="3" t="n">
-        <v>104.0</v>
+        <v>103.9</v>
       </c>
       <c r="XT20" s="3" t="n">
-        <v>103.0</v>
+        <v>102.7</v>
       </c>
       <c r="XU20" s="3" t="n">
         <v>102.4</v>
@@ -65341,7 +65521,7 @@
         <v>102.1</v>
       </c>
       <c r="XY20" s="3" t="n">
-        <v>103.4</v>
+        <v>103.6</v>
       </c>
       <c r="XZ20" s="3" t="n">
         <v>101.0</v>
@@ -65350,19 +65530,19 @@
         <v>101.8</v>
       </c>
       <c r="YB20" s="3" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="YC20" s="3" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="YD20" s="3" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="YE20" s="3" t="n">
         <v>103.4</v>
       </c>
       <c r="YF20" s="3" t="n">
-        <v>104.3</v>
+        <v>104.0</v>
       </c>
       <c r="YG20" s="3" t="n">
         <v>99.6</v>
@@ -65377,7 +65557,7 @@
         <v>101.7</v>
       </c>
       <c r="YK20" s="3" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="YL20" s="3" t="n">
         <v>100.8</v>
@@ -65386,19 +65566,19 @@
         <v>103.3</v>
       </c>
       <c r="YN20" s="3" t="n">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="YO20" s="3" t="n">
         <v>99.3</v>
       </c>
       <c r="YP20" s="3" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="YQ20" s="3" t="n">
         <v>99.3</v>
       </c>
       <c r="YR20" s="3" t="n">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="YS20" s="3" t="n">
         <v>101.5</v>
@@ -65413,7 +65593,7 @@
         <v>93.6</v>
       </c>
       <c r="YW20" s="3" t="n">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="YX20" s="3" t="n">
         <v>98.8</v>
@@ -65422,37 +65602,37 @@
         <v>101.2</v>
       </c>
       <c r="YZ20" s="3" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="ZA20" s="3" t="n">
         <v>101.9</v>
       </c>
       <c r="ZB20" s="3" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="ZC20" s="3" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="ZD20" s="3" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="ZE20" s="3" t="n">
         <v>101.4</v>
       </c>
       <c r="ZF20" s="3" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="ZG20" s="3" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="ZH20" s="3" t="n">
-        <v>99.1</v>
+        <v>99.0</v>
       </c>
       <c r="ZI20" s="3" t="n">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="ZJ20" s="3" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="ZK20" s="3" t="n">
         <v>98.1</v>
@@ -65461,191 +65641,200 @@
         <v>99.3</v>
       </c>
       <c r="ZM20" s="3" t="n">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="ZN20" s="3" t="n">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="ZO20" s="3" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="ZP20" s="3" t="n">
-        <v>97.9</v>
+        <v>97.7</v>
       </c>
       <c r="ZQ20" s="3" t="n">
         <v>96.8</v>
       </c>
       <c r="ZR20" s="3" t="n">
-        <v>100.2</v>
+        <v>99.9</v>
       </c>
       <c r="ZS20" s="3" t="n">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="ZT20" s="3" t="n">
         <v>98.2</v>
       </c>
       <c r="ZU20" s="3" t="n">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="ZV20" s="3" t="n">
         <v>94.5</v>
       </c>
       <c r="ZW20" s="3" t="n">
+        <v>98.6</v>
+      </c>
+      <c r="ZX20" s="3" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="ZY20" s="3" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="ZZ20" s="3" t="n">
         <v>98.7</v>
       </c>
-      <c r="ZX20" s="3" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="ZY20" s="3" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="ZZ20" s="3" t="n">
-        <v>98.5</v>
-      </c>
       <c r="AAA20" s="3" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="AAB20" s="3" t="n">
-        <v>99.6</v>
+        <v>99.2</v>
       </c>
       <c r="AAC20" s="3" t="n">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="AAD20" s="3" t="n">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="AAE20" s="3" t="n">
-        <v>96.6</v>
+        <v>97.0</v>
       </c>
       <c r="AAF20" s="3" t="n">
         <v>97.6</v>
       </c>
       <c r="AAG20" s="3" t="n">
-        <v>98.9</v>
+        <v>98.6</v>
       </c>
       <c r="AAH20" s="3" t="n">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="AAI20" s="3" t="n">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="AAJ20" s="3" t="n">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="AAK20" s="3" t="n">
-        <v>97.6</v>
+        <v>97.8</v>
       </c>
       <c r="AAL20" s="3" t="n">
-        <v>97.5</v>
+        <v>97.8</v>
       </c>
       <c r="AAM20" s="3" t="n">
-        <v>97.6</v>
+        <v>98.2</v>
       </c>
       <c r="AAN20" s="3" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="AAO20" s="3" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="AAP20" s="3" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="AAQ20" s="3" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="AAR20" s="3" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="AAS20" s="3" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AAT20" s="3" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="AAU20" s="3" t="n">
+        <v>91.6</v>
+      </c>
+      <c r="AAV20" s="3" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="AAW20" s="3" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="AAX20" s="3" t="n">
         <v>94.5</v>
       </c>
-      <c r="AAO20" s="3" t="n">
-        <v>97.6</v>
-      </c>
-      <c r="AAP20" s="3" t="n">
-        <v>97.1</v>
-      </c>
-      <c r="AAQ20" s="3" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="AAR20" s="3" t="n">
-        <v>94.1</v>
-      </c>
-      <c r="AAS20" s="3" t="n">
-        <v>93.1</v>
-      </c>
-      <c r="AAT20" s="3" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="AAU20" s="3" t="n">
-        <v>92.1</v>
-      </c>
-      <c r="AAV20" s="3" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="AAW20" s="3" t="n">
-        <v>93.1</v>
-      </c>
-      <c r="AAX20" s="3" t="n">
-        <v>94.1</v>
-      </c>
       <c r="AAY20" s="3" t="n">
+        <v>95.1</v>
+      </c>
+      <c r="AAZ20" s="3" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="ABA20" s="3" t="n">
+        <v>72.9</v>
+      </c>
+      <c r="ABB20" s="3" t="n">
+        <v>81.4</v>
+      </c>
+      <c r="ABC20" s="3" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="ABD20" s="3" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="ABE20" s="3" t="n">
+        <v>83.6</v>
+      </c>
+      <c r="ABF20" s="3" t="n">
+        <v>83.9</v>
+      </c>
+      <c r="ABG20" s="3" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="ABH20" s="3" t="n">
+        <v>83.4</v>
+      </c>
+      <c r="ABI20" s="3" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="ABJ20" s="3" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="ABK20" s="3" t="n">
+        <v>83.4</v>
+      </c>
+      <c r="ABL20" s="3" t="n">
+        <v>85.4</v>
+      </c>
+      <c r="ABM20" s="3" t="n">
+        <v>86.4</v>
+      </c>
+      <c r="ABN20" s="3" t="n">
+        <v>88.4</v>
+      </c>
+      <c r="ABO20" s="3" t="n">
+        <v>86.4</v>
+      </c>
+      <c r="ABP20" s="3" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="ABQ20" s="3" t="n">
+        <v>89.6</v>
+      </c>
+      <c r="ABR20" s="3" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="ABS20" s="3" t="n">
         <v>93.6</v>
       </c>
-      <c r="AAZ20" s="3" t="n">
-        <v>84.9</v>
-      </c>
-      <c r="ABA20" s="3" t="n">
-        <v>72.4</v>
-      </c>
-      <c r="ABB20" s="3" t="n">
-        <v>82.7</v>
-      </c>
-      <c r="ABC20" s="3" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="ABD20" s="3" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="ABE20" s="3" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="ABF20" s="3" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="ABG20" s="3" t="n">
-        <v>84.5</v>
-      </c>
-      <c r="ABH20" s="3" t="n">
-        <v>83.7</v>
-      </c>
-      <c r="ABI20" s="3" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="ABJ20" s="3" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="ABK20" s="3" t="n">
-        <v>80.6</v>
-      </c>
-      <c r="ABL20" s="3" t="n">
-        <v>86.4</v>
-      </c>
-      <c r="ABM20" s="3" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="ABN20" s="3" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="ABO20" s="3" t="n">
-        <v>83.7</v>
-      </c>
-      <c r="ABP20" s="3" t="n">
-        <v>86.1</v>
-      </c>
-      <c r="ABQ20" s="3" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="ABR20" s="3" t="n">
-        <v>89.9</v>
-      </c>
-      <c r="ABS20" s="3" t="n">
-        <v>95.0</v>
-      </c>
       <c r="ABT20" s="3" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="ABU20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABV20" s="1" t="inlineStr">
+        <v>92.9</v>
+      </c>
+      <c r="ABU20" s="3" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="ABV20" s="3" t="n">
+        <v>93.6</v>
+      </c>
+      <c r="ABW20" s="3" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="ABX20" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABY20" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -65673,7 +65862,7 @@
         </is>
       </c>
       <c r="E21" s="9" t="n">
-        <v>269.24</v>
+        <v>321.217</v>
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
@@ -68387,9 +68576,18 @@
         <v>164.86</v>
       </c>
       <c r="ABU21" s="3" t="n">
-        <v>162.82</v>
-      </c>
-      <c r="ABV21" s="1" t="inlineStr">
+        <v>160.76</v>
+      </c>
+      <c r="ABV21" s="3" t="n">
+        <v>153.94</v>
+      </c>
+      <c r="ABW21" s="3" t="n">
+        <v>166.82</v>
+      </c>
+      <c r="ABX21" s="3" t="n">
+        <v>178.86</v>
+      </c>
+      <c r="ABY21" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -68417,7 +68615,7 @@
         </is>
       </c>
       <c r="E22" s="9" t="n">
-        <v>443.035</v>
+        <v>442.434</v>
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
@@ -71131,9 +71329,18 @@
         <v>126.69</v>
       </c>
       <c r="ABU22" s="3" t="n">
-        <v>126.33</v>
-      </c>
-      <c r="ABV22" s="1" t="inlineStr">
+        <v>126.35</v>
+      </c>
+      <c r="ABV22" s="3" t="n">
+        <v>124.86</v>
+      </c>
+      <c r="ABW22" s="3" t="n">
+        <v>128.98</v>
+      </c>
+      <c r="ABX22" s="3" t="n">
+        <v>132.05</v>
+      </c>
+      <c r="ABY22" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -71161,7 +71368,7 @@
         </is>
       </c>
       <c r="E23" s="9" t="n">
-        <v>126.046</v>
+        <v>91.458</v>
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
@@ -73875,9 +74082,18 @@
         <v>109.73</v>
       </c>
       <c r="ABU23" s="3" t="n">
-        <v>109.14</v>
-      </c>
-      <c r="ABV23" s="1" t="inlineStr">
+        <v>109.18</v>
+      </c>
+      <c r="ABV23" s="3" t="n">
+        <v>109.04</v>
+      </c>
+      <c r="ABW23" s="3" t="n">
+        <v>111.17</v>
+      </c>
+      <c r="ABX23" s="3" t="n">
+        <v>112.02</v>
+      </c>
+      <c r="ABY23" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -73905,7 +74121,7 @@
         </is>
       </c>
       <c r="E24" s="9" t="n">
-        <v>161.679</v>
+        <v>144.891</v>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
@@ -76979,9 +77195,18 @@
         <v>102.79</v>
       </c>
       <c r="ABU24" s="3" t="n">
-        <v>102.95</v>
-      </c>
-      <c r="ABV24" s="1" t="inlineStr">
+        <v>102.98</v>
+      </c>
+      <c r="ABV24" s="3" t="n">
+        <v>102.63</v>
+      </c>
+      <c r="ABW24" s="3" t="n">
+        <v>103.39</v>
+      </c>
+      <c r="ABX24" s="3" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="ABY24" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
